--- a/data/_general_data/diets/all_feeds.xlsx
+++ b/data/_general_data/diets/all_feeds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\treimer\Documents\R-temp-files\local_to_global_mariculture_modelling\data\_general_data\diets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CABC58F6-1D4D-448D-BBA7-525DAFC5E7EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869C39F4-483E-4F83-B717-0DB9D35AF2DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2004" yWindow="1356" windowWidth="16860" windowHeight="14664" activeTab="1" xr2:uid="{A3945701-1F25-4092-97C8-50D4B2B937C4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{A3945701-1F25-4092-97C8-50D4B2B937C4}"/>
   </bookViews>
   <sheets>
     <sheet name="all_feeds" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="52">
   <si>
     <t>ingredient</t>
   </si>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t>coconut-oil</t>
-  </si>
-  <si>
-    <t>corn-gluten-meal</t>
   </si>
   <si>
     <t>faba-beans</t>
@@ -3044,8 +3041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76559CA1-42BE-4BD5-A831-409A491DC0E7}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3128,7 +3125,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>7.0000000000000001E-3</v>
@@ -3142,7 +3139,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>3.5999999999999997E-2</v>
@@ -3156,7 +3153,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>8.7999999999999995E-2</v>
@@ -3170,7 +3167,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>3.3000000000000002E-2</v>
@@ -3184,7 +3181,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>8.4000000000000005E-2</v>
@@ -3198,7 +3195,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>0.02</v>
@@ -3212,7 +3209,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>4.2999999999999997E-2</v>
@@ -3226,7 +3223,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>4.0000000000000001E-3</v>
@@ -3240,7 +3237,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>1.2999999999999999E-2</v>
@@ -3254,7 +3251,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -3268,7 +3265,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16">
         <v>2.5000000000000001E-2</v>
@@ -3282,7 +3279,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>1.4E-2</v>
@@ -3296,7 +3293,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3310,7 +3307,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>4.0000000000000001E-3</v>
@@ -3324,7 +3321,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20">
         <v>0.20899999999999999</v>
@@ -3338,7 +3335,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3352,7 +3349,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22">
         <v>3.4000000000000002E-2</v>
@@ -3366,7 +3363,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23">
         <v>6.5000000000000002E-2</v>
@@ -3380,7 +3377,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24">
         <v>9.8000000000000004E-2</v>
@@ -3394,15 +3391,21 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25">
         <v>4.1000000000000002E-2</v>
       </c>
+      <c r="C25">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="D25">
+        <v>4.1000000000000002E-2</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3423,8 +3426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E575356-B323-4D16-82DC-0AC8D69C8CE8}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3438,24 +3441,24 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>30</v>
-      </c>
-      <c r="E1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -3472,10 +3475,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -3489,7 +3492,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -3506,7 +3509,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -3523,7 +3526,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -3540,10 +3543,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="1">
         <v>7.6616313903328332E-3</v>
@@ -3557,10 +3560,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="1">
         <v>2.1556568613219654E-2</v>
@@ -3574,10 +3577,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1">
         <v>0.14871006944806647</v>
@@ -3592,10 +3595,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1">
         <v>4.5596717977033734E-2</v>
@@ -3609,10 +3612,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1">
         <v>8.7076221638678522E-2</v>
@@ -3626,10 +3629,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1">
         <v>2.4751502209397133E-2</v>
@@ -3643,10 +3646,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -3661,10 +3664,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -3678,10 +3681,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -3697,10 +3700,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
@@ -3715,10 +3718,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="1">
         <v>0</v>
@@ -3732,10 +3735,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
@@ -3749,10 +3752,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" s="1">
         <v>3.1062405944578275E-2</v>
@@ -3766,10 +3769,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="1">
         <v>1.0085252416118028E-2</v>
@@ -3783,10 +3786,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="1">
         <v>7.9231644148489502E-3</v>
@@ -3800,10 +3803,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22" s="1">
         <v>0.18312885370749094</v>
@@ -3817,10 +3820,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" s="1">
         <v>0</v>
@@ -3834,10 +3837,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C24" s="1">
         <v>0</v>
@@ -3851,10 +3854,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C25" s="1">
         <v>0</v>
@@ -3868,10 +3871,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C26" s="1">
         <v>0.21236849084420042</v>
@@ -3885,10 +3888,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C27" s="1">
         <v>0</v>
@@ -3902,10 +3905,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C28" s="1">
         <v>0</v>
@@ -3919,10 +3922,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C29" s="1">
         <v>5.9628304610637353E-2</v>
@@ -3936,10 +3939,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C30" s="1">
         <v>2.0800144057534814E-3</v>
@@ -3953,10 +3956,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C31" s="1">
         <v>9.8875407994580694E-2</v>
@@ -3970,10 +3973,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C32" s="1">
         <v>5.9495394385063585E-2</v>
@@ -3987,10 +3990,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C33" s="1">
         <v>0</v>
@@ -4030,27 +4033,27 @@
   <sheetData>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
         <v>45</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>46</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>47</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>48</v>
-      </c>
-      <c r="F3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -4070,7 +4073,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>0.30613451127317587</v>
@@ -4090,7 +4093,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -4110,7 +4113,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7">
         <v>3.1062405944578275E-2</v>
@@ -4130,7 +4133,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8">
         <v>0.60317477817160847</v>
@@ -4150,7 +4153,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9">
         <v>0.94037169538936261</v>

--- a/data/_general_data/diets/all_feeds.xlsx
+++ b/data/_general_data/diets/all_feeds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\treimer\Documents\R-temp-files\local_to_global_mariculture_modelling\data\_general_data\diets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869C39F4-483E-4F83-B717-0DB9D35AF2DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71AD550-0690-46C0-BFCA-A96CA9CB1957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{A3945701-1F25-4092-97C8-50D4B2B937C4}"/>
+    <workbookView xWindow="14112" yWindow="1140" windowWidth="26184" windowHeight="14664" activeTab="2" xr2:uid="{A3945701-1F25-4092-97C8-50D4B2B937C4}"/>
   </bookViews>
   <sheets>
     <sheet name="all_feeds" sheetId="1" r:id="rId1"/>
@@ -684,7 +684,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -694,6 +694,7 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -2212,15 +2213,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>449580</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3041,8 +3042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76559CA1-42BE-4BD5-A831-409A491DC0E7}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3427,7 +3428,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3463,13 +3464,13 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="C2" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7">
         <v>8.2217463470849784E-4</v>
       </c>
     </row>
@@ -3480,13 +3481,13 @@
       <c r="B3" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="C3" s="7">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7">
         <v>3.5523691145231797E-3</v>
       </c>
     </row>
@@ -3497,13 +3498,13 @@
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7">
         <v>0</v>
       </c>
     </row>
@@ -3514,13 +3515,13 @@
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
         <v>0</v>
       </c>
     </row>
@@ -3531,13 +3532,13 @@
       <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7">
         <v>5.0892670595418946E-4</v>
       </c>
     </row>
@@ -3548,13 +3549,13 @@
       <c r="B7" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="7">
         <v>7.6616313903328332E-3</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="7">
         <v>3.5621394342285638E-2</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="7">
         <v>6.5619168021190779E-3</v>
       </c>
     </row>
@@ -3565,13 +3566,13 @@
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="7">
         <v>2.1556568613219654E-2</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="7">
         <v>3.3643486205949452E-2</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="7">
         <v>3.5699741337748753E-2</v>
       </c>
     </row>
@@ -3582,13 +3583,13 @@
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="7">
         <v>0.14871006944806647</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="7">
         <v>0.11691532353452615</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="7">
         <f>(174172-8155)/1976709</f>
         <v>8.3986565549102069E-2</v>
       </c>
@@ -3600,13 +3601,13 @@
       <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="7">
         <v>4.5596717977033734E-2</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="7">
         <v>2.8487038526504523E-2</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="7">
         <v>3.3155613699335611E-2</v>
       </c>
     </row>
@@ -3617,13 +3618,13 @@
       <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="7">
         <v>8.7076221638678522E-2</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="7">
         <v>7.7887429438326938E-2</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="7">
         <v>8.3275282300024941E-2</v>
       </c>
     </row>
@@ -3634,13 +3635,13 @@
       <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="7">
         <v>2.4751502209397133E-2</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="7">
         <v>2.6126943729465914E-2</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="7">
         <v>1.9722680475477171E-2</v>
       </c>
     </row>
@@ -3651,13 +3652,13 @@
       <c r="B13" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="1">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
         <v>3.2647465985694415E-2</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="7">
         <v>0</v>
       </c>
       <c r="G13" s="6"/>
@@ -3669,13 +3670,13 @@
       <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="1">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1">
+      <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7">
         <v>0</v>
       </c>
     </row>
@@ -3686,13 +3687,13 @@
       <c r="B15" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="1">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1">
+      <c r="C15" s="7">
+        <v>0</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0</v>
+      </c>
+      <c r="E15" s="7">
         <v>4.2837362505052587E-2</v>
       </c>
       <c r="G15" s="1"/>
@@ -3705,13 +3706,13 @@
       <c r="B16" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="1">
-        <v>0</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1">
+      <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7">
         <f>8155/1976709</f>
         <v>4.1255440229189021E-3</v>
       </c>
@@ -3723,13 +3724,13 @@
       <c r="B17" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="1">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1">
+      <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
         <v>3.4562700425259467E-3</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="7">
         <v>1.3089432991907256E-2</v>
       </c>
     </row>
@@ -3740,13 +3741,13 @@
       <c r="B18" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="1">
-        <v>0</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0</v>
-      </c>
-      <c r="E18" s="1">
+      <c r="C18" s="7">
+        <v>0</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0</v>
+      </c>
+      <c r="E18" s="7">
         <v>8.2217463470849784E-4</v>
       </c>
     </row>
@@ -3757,13 +3758,13 @@
       <c r="B19" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="7">
         <v>3.1062405944578275E-2</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="7">
         <v>4.0198417550601329E-2</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="7">
         <v>4.0560851394919537E-2</v>
       </c>
     </row>
@@ -3774,13 +3775,13 @@
       <c r="B20" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="7">
         <v>1.0085252416118028E-2</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="7">
         <v>7.5589393890051907E-3</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="7">
         <v>2.458227285857453E-2</v>
       </c>
     </row>
@@ -3791,13 +3792,13 @@
       <c r="B21" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="7">
         <v>7.9231644148489502E-3</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="7">
         <v>1.3480374837862533E-2</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="7">
         <v>1.3813869416287374E-2</v>
       </c>
     </row>
@@ -3808,13 +3809,13 @@
       <c r="B22" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="7">
         <v>0.18312885370749094</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="7">
         <v>0.19820863827875909</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="7">
         <v>0.18034976316696083</v>
       </c>
     </row>
@@ -3825,13 +3826,13 @@
       <c r="B23" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="1">
-        <v>0</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0</v>
-      </c>
-      <c r="E23" s="1">
+      <c r="C23" s="7">
+        <v>0</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0</v>
+      </c>
+      <c r="E23" s="7">
         <v>8.2217463470849784E-4</v>
       </c>
     </row>
@@ -3842,13 +3843,13 @@
       <c r="B24" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="1">
-        <v>0</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0</v>
-      </c>
-      <c r="E24" s="1">
+      <c r="C24" s="7">
+        <v>0</v>
+      </c>
+      <c r="D24" s="7">
+        <v>0</v>
+      </c>
+      <c r="E24" s="7">
         <v>0</v>
       </c>
     </row>
@@ -3859,13 +3860,13 @@
       <c r="B25" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="1">
-        <v>0</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0</v>
-      </c>
-      <c r="E25" s="1">
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0</v>
+      </c>
+      <c r="E25" s="7">
         <v>3.7395489169118976E-3</v>
       </c>
     </row>
@@ -3876,13 +3877,13 @@
       <c r="B26" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="7">
         <v>0.21236849084420042</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="7">
         <v>0.19030130686946728</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="7">
         <v>0.20924223039405396</v>
       </c>
     </row>
@@ -3893,13 +3894,13 @@
       <c r="B27" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="1">
-        <v>0</v>
-      </c>
-      <c r="D27" s="1">
-        <v>0</v>
-      </c>
-      <c r="E27" s="1">
+      <c r="C27" s="7">
+        <v>0</v>
+      </c>
+      <c r="D27" s="7">
+        <v>0</v>
+      </c>
+      <c r="E27" s="7">
         <v>8.2217463470849784E-4</v>
       </c>
     </row>
@@ -3910,13 +3911,13 @@
       <c r="B28" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="1">
-        <v>0</v>
-      </c>
-      <c r="D28" s="1">
+      <c r="C28" s="7">
+        <v>0</v>
+      </c>
+      <c r="D28" s="7">
         <v>1.1396781644226001E-2</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="7">
         <v>3.4298422276622408E-2</v>
       </c>
     </row>
@@ -3927,13 +3928,13 @@
       <c r="B29" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="7">
         <v>5.9628304610637353E-2</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="7">
         <v>5.3401676337054222E-3</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="7">
         <v>0</v>
       </c>
     </row>
@@ -3944,13 +3945,13 @@
       <c r="B30" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="7">
         <v>2.0800144057534814E-3</v>
       </c>
-      <c r="D30" s="1">
-        <v>0</v>
-      </c>
-      <c r="E30" s="1">
+      <c r="D30" s="7">
+        <v>0</v>
+      </c>
+      <c r="E30" s="7">
         <v>0</v>
       </c>
     </row>
@@ -3961,13 +3962,13 @@
       <c r="B31" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="7">
         <v>9.8875407994580694E-2</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="7">
         <v>8.8852254133238134E-2</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="7">
         <v>6.4692375053687717E-2</v>
       </c>
     </row>
@@ -3978,13 +3979,13 @@
       <c r="B32" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="7">
         <v>5.9495394385063585E-2</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="7">
         <v>8.9877767857856061E-2</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="7">
         <v>9.8094357844275504E-2</v>
       </c>
     </row>
@@ -3995,13 +3996,13 @@
       <c r="B33" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="1">
-        <v>0</v>
-      </c>
-      <c r="D33" s="1">
-        <v>0</v>
-      </c>
-      <c r="E33" s="1">
+      <c r="C33" s="7">
+        <v>0</v>
+      </c>
+      <c r="D33" s="7">
+        <v>0</v>
+      </c>
+      <c r="E33" s="7">
         <v>8.2217463470849784E-4</v>
       </c>
     </row>
@@ -4019,8 +4020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8272ED4D-9208-4D93-86CE-64F7610AA560}">
   <dimension ref="A3:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/_general_data/diets/all_feeds.xlsx
+++ b/data/_general_data/diets/all_feeds.xlsx
@@ -1,28 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\treimer\Documents\R-temp-files\local_to_global_mariculture_modelling\data\_general_data\diets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71AD550-0690-46C0-BFCA-A96CA9CB1957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C94FC5D-E398-4942-B0B3-6C4AF369EEB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14112" yWindow="1140" windowWidth="26184" windowHeight="14664" activeTab="2" xr2:uid="{A3945701-1F25-4092-97C8-50D4B2B937C4}"/>
+    <workbookView xWindow="14112" yWindow="0" windowWidth="27228" windowHeight="16656" xr2:uid="{A3945701-1F25-4092-97C8-50D4B2B937C4}"/>
   </bookViews>
   <sheets>
     <sheet name="all_feeds" sheetId="1" r:id="rId1"/>
-    <sheet name="testing" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="formulating" sheetId="4" r:id="rId2"/>
+    <sheet name="testing" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">testing!$A$1:$E$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">formulating!$B$2:$H$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">testing!$A$1:$E$32</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="9" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -41,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="63">
   <si>
     <t>ingredient</t>
   </si>
@@ -198,15 +201,49 @@
   <si>
     <t>general-vegetable</t>
   </si>
+  <si>
+    <t>Ingredient</t>
+  </si>
+  <si>
+    <t>Plant-dominant</t>
+  </si>
+  <si>
+    <t>Novel-Inclusive</t>
+  </si>
+  <si>
+    <t>Marine-dominant</t>
+  </si>
+  <si>
+    <t>Raw %</t>
+  </si>
+  <si>
+    <t>Fixed %</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Sum of Fixed %</t>
+  </si>
+  <si>
+    <t>Sum of Fixed %2</t>
+  </si>
+  <si>
+    <t>Sum of Fixed %3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000000000000000%"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -337,6 +374,30 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -523,7 +584,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -638,6 +699,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -684,7 +774,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -694,7 +784,30 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -741,7 +854,13 @@
     <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -755,6 +874,371 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[all_feeds.xlsx]formulating!PivotTable1</c:name>
+    <c:fmtId val="5"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>formulating!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>formulating!$K$2:$K$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>animal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>marine</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>novel</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>other</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>plant</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>formulating!$L$2:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52833813640730076</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9385206532180597E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.43227665706051877</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5F56-4B8B-A113-6A30D1882135}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1607,6 +2091,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1614,7 +2099,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1705,7 +2189,566 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2212,6 +3255,47 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>678180</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CC82C48-55BE-FC52-AD6C-1FB967C64D49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>403860</xdr:colOff>
       <xdr:row>10</xdr:row>
@@ -2291,6 +3375,51 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Tormey Reimer" refreshedDate="45873.676018749997" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="30" xr:uid="{1AA0B8C2-2E49-4208-A152-11B8ABBB7DD2}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A2:H32" sheet="formulating"/>
+  </cacheSource>
+  <cacheFields count="8">
+    <cacheField name="Type" numFmtId="0">
+      <sharedItems count="5">
+        <s v="novel"/>
+        <s v="plant"/>
+        <s v="animal"/>
+        <s v="marine"/>
+        <s v="other"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Ingredient" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Raw %" numFmtId="165">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.32"/>
+    </cacheField>
+    <cacheField name="Fixed %" numFmtId="165">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.30739673390970224"/>
+    </cacheField>
+    <cacheField name="Raw %2" numFmtId="165">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.20899999999999999"/>
+    </cacheField>
+    <cacheField name="Fixed %2" numFmtId="165">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.19885823025689817"/>
+    </cacheField>
+    <cacheField name="Raw %3" numFmtId="165">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.15"/>
+    </cacheField>
+    <cacheField name="Fixed %3" numFmtId="165">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.14354066985645927"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="33">
   <r>
@@ -2593,7 +3722,550 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="30">
+  <r>
+    <x v="0"/>
+    <s v="bsf-meal"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.05"/>
+    <n v="4.7846889952153096E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="canola-oil"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.18"/>
+    <n v="0.17126546146527113"/>
+    <n v="0.15"/>
+    <n v="0.14354066985645927"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="chicken-protein-concentrate"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.1"/>
+    <n v="9.5693779904306192E-2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="coconut-oil"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.01"/>
+    <n v="9.5147478591817297E-3"/>
+    <n v="0.02"/>
+    <n v="1.9138755980861236E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="corn-gluten"/>
+    <n v="0.04"/>
+    <n v="3.8424591738712779E-2"/>
+    <n v="7.0000000000000001E-3"/>
+    <n v="6.6603235014272115E-3"/>
+    <n v="0.08"/>
+    <n v="7.6555023923444945E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="faba-beans"/>
+    <n v="0.02"/>
+    <n v="1.921229586935639E-2"/>
+    <n v="3.5999999999999997E-2"/>
+    <n v="3.4253092293054226E-2"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="fishmeal-forage"/>
+    <n v="0.32"/>
+    <n v="0.30739673390970224"/>
+    <n v="8.7999999999999995E-2"/>
+    <n v="8.3729781160799224E-2"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="fishmeal-trimmings"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3.3000000000000002E-2"/>
+    <n v="3.1398667935299711E-2"/>
+    <n v="0.05"/>
+    <n v="4.7846889952153096E-2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="fish-oil-forage"/>
+    <n v="0.23"/>
+    <n v="0.2209414024975985"/>
+    <n v="8.4000000000000005E-2"/>
+    <n v="7.9923882017126538E-2"/>
+    <n v="0.02"/>
+    <n v="1.9138755980861236E-2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="fish-oil-trimmings"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.02"/>
+    <n v="1.9029495718363459E-2"/>
+    <n v="0.05"/>
+    <n v="4.7846889952153096E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="guar-meal"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="4.2999999999999997E-2"/>
+    <n v="4.0913415794481434E-2"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="guar-meal-high-protein"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="4.2999999999999997E-2"/>
+    <n v="4.0913415794481434E-2"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="krill-meal"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="4.0000000000000001E-3"/>
+    <n v="3.805899143672692E-3"/>
+    <n v="0.02"/>
+    <n v="1.9138755980861236E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="linseed-oil"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1.2999999999999999E-2"/>
+    <n v="1.2369172216936248E-2"/>
+    <n v="0.03"/>
+    <n v="2.8708133971291856E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="methanobacterial-meal"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="7.0000000000000007E-2"/>
+    <n v="6.6985645933014343E-2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="microingredients"/>
+    <n v="4.1000000000000002E-2"/>
+    <n v="3.9385206532180597E-2"/>
+    <n v="4.1000000000000002E-2"/>
+    <n v="3.9010466222645097E-2"/>
+    <n v="4.4999999999999998E-2"/>
+    <n v="4.3062200956937781E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="pea-flour"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="2.5000000000000001E-2"/>
+    <n v="2.3786869647954328E-2"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="pea-protein-concentrate"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1.4E-2"/>
+    <n v="1.3320647002854423E-2"/>
+    <n v="0.05"/>
+    <n v="4.7846889952153096E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="rapeseed-oil"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="single-cell-protein"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="soybean-meal"/>
+    <n v="0.17"/>
+    <n v="0.16330451488952932"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="soybean-oil"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="4.0000000000000001E-3"/>
+    <n v="3.805899143672692E-3"/>
+    <n v="0.02"/>
+    <n v="1.9138755980861236E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="soy-protein-concentrate"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.20899999999999999"/>
+    <n v="0.19885823025689817"/>
+    <n v="0.15"/>
+    <n v="0.14354066985645927"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="spirulina-meal"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="7.0000000000000007E-2"/>
+    <n v="6.6985645933014343E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="sunflower-meal"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3.4000000000000002E-2"/>
+    <n v="3.2350142721217882E-2"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="sunflower-meal-high-protein"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="tapioca"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="wheat"/>
+    <n v="7.0000000000000007E-2"/>
+    <n v="6.7243035542747367E-2"/>
+    <n v="6.5000000000000002E-2"/>
+    <n v="6.184586108468125E-2"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="wheat-gluten"/>
+    <n v="0.15"/>
+    <n v="0.14409221902017291"/>
+    <n v="9.8000000000000004E-2"/>
+    <n v="9.3244529019980954E-2"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="yeast-meal"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="7.0000000000000007E-2"/>
+    <n v="6.6985645933014343E-2"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{83628B94-ADA3-4417-AAFC-398D044A1D1F}" name="PivotTable3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="K17:L23" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Fixed %3" fld="7" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{43DC3850-6476-413F-9B32-C7A4BBF15A3A}" name="PivotTable2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="K9:L15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Fixed %2" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="1" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D3018706-BFE2-41A1-9C0D-117282674616}" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+  <location ref="K1:L7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Fixed %" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="3">
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{44B1F1FC-026A-4C62-9C81-84E8C0041AE2}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:F9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
@@ -3042,8 +4714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76559CA1-42BE-4BD5-A831-409A491DC0E7}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3424,19 +5096,1173 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE4C1296-1CD9-4FE1-A63A-0A0295BE2554}">
+  <dimension ref="A1:L34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="26.5546875" customWidth="1"/>
+    <col min="3" max="8" width="13.88671875" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="14.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B1" s="9"/>
+      <c r="C1" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="12"/>
+      <c r="E1" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="12"/>
+      <c r="G1" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="12"/>
+      <c r="K1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="15">
+        <v>0</v>
+      </c>
+      <c r="D3" s="16">
+        <f>C3/C$34</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="15">
+        <v>0</v>
+      </c>
+      <c r="F3" s="16">
+        <f>E3/E$34</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="H3" s="16">
+        <f>G3/G$34</f>
+        <v>4.7846889952153096E-2</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="20">
+        <v>0.52833813640730076</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="15">
+        <v>0</v>
+      </c>
+      <c r="D4" s="16">
+        <f>C4/C$34</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="15">
+        <v>0.18</v>
+      </c>
+      <c r="F4" s="16">
+        <f>E4/E$34</f>
+        <v>0.17126546146527113</v>
+      </c>
+      <c r="G4" s="15">
+        <v>0.15</v>
+      </c>
+      <c r="H4" s="16">
+        <f>G4/G$34</f>
+        <v>0.14354066985645927</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0</v>
+      </c>
+      <c r="D5" s="16">
+        <f>C5/C$34</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="15">
+        <v>0</v>
+      </c>
+      <c r="F5" s="16">
+        <f>E5/E$34</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="H5" s="16">
+        <f>G5/G$34</f>
+        <v>9.5693779904306192E-2</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" s="20">
+        <v>3.9385206532180597E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="15">
+        <v>0</v>
+      </c>
+      <c r="D6" s="16">
+        <f>C6/C$34</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="F6" s="16">
+        <f>E6/E$34</f>
+        <v>9.5147478591817297E-3</v>
+      </c>
+      <c r="G6" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="H6" s="16">
+        <f>G6/G$34</f>
+        <v>1.9138755980861236E-2</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="20">
+        <v>0.43227665706051877</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="15">
+        <v>0.04</v>
+      </c>
+      <c r="D7" s="16">
+        <f>C7/C$34</f>
+        <v>3.8424591738712779E-2</v>
+      </c>
+      <c r="E7" s="15">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F7" s="16">
+        <f>E7/E$34</f>
+        <v>6.6603235014272115E-3</v>
+      </c>
+      <c r="G7" s="15">
+        <v>0.08</v>
+      </c>
+      <c r="H7" s="16">
+        <f>G7/G$34</f>
+        <v>7.6555023923444945E-2</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="D8" s="16">
+        <f>C8/C$34</f>
+        <v>1.921229586935639E-2</v>
+      </c>
+      <c r="E8" s="15">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="F8" s="16">
+        <f>E8/E$34</f>
+        <v>3.4253092293054226E-2</v>
+      </c>
+      <c r="G8" s="15">
+        <v>0</v>
+      </c>
+      <c r="H8" s="16">
+        <f>G8/G$34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="15">
+        <v>0.32</v>
+      </c>
+      <c r="D9" s="16">
+        <f>C9/C$34</f>
+        <v>0.30739673390970224</v>
+      </c>
+      <c r="E9" s="15">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="F9" s="16">
+        <f>E9/E$34</f>
+        <v>8.3729781160799224E-2</v>
+      </c>
+      <c r="G9" s="15">
+        <v>0</v>
+      </c>
+      <c r="H9" s="16">
+        <f>G9/G$34</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="15">
+        <v>0</v>
+      </c>
+      <c r="D10" s="16">
+        <f>C10/C$34</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="15">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="F10" s="16">
+        <f>E10/E$34</f>
+        <v>3.1398667935299711E-2</v>
+      </c>
+      <c r="G10" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="H10" s="16">
+        <f>G10/G$34</f>
+        <v>4.7846889952153096E-2</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L10" s="20">
+        <v>9.5147478591817297E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="15">
+        <v>0.23</v>
+      </c>
+      <c r="D11" s="16">
+        <f>C11/C$34</f>
+        <v>0.2209414024975985</v>
+      </c>
+      <c r="E11" s="15">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="F11" s="16">
+        <f>E11/E$34</f>
+        <v>7.9923882017126538E-2</v>
+      </c>
+      <c r="G11" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="H11" s="16">
+        <f>G11/G$34</f>
+        <v>1.9138755980861236E-2</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11" s="20">
+        <v>0.2178877259752616</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="15">
+        <v>0</v>
+      </c>
+      <c r="D12" s="16">
+        <f>C12/C$34</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="F12" s="16">
+        <f>E12/E$34</f>
+        <v>1.9029495718363459E-2</v>
+      </c>
+      <c r="G12" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="H12" s="16">
+        <f>G12/G$34</f>
+        <v>4.7846889952153096E-2</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L12" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="15">
+        <v>0</v>
+      </c>
+      <c r="D13" s="16">
+        <f>C13/C$34</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="15">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="F13" s="16">
+        <f>E13/E$34</f>
+        <v>4.0913415794481434E-2</v>
+      </c>
+      <c r="G13" s="15">
+        <v>0</v>
+      </c>
+      <c r="H13" s="16">
+        <f>G13/G$34</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L13" s="20">
+        <v>3.9010466222645097E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="15">
+        <v>0</v>
+      </c>
+      <c r="D14" s="16">
+        <f>C14/C$34</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="15">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="F14" s="16">
+        <f>E14/E$34</f>
+        <v>4.0913415794481434E-2</v>
+      </c>
+      <c r="G14" s="15">
+        <v>0</v>
+      </c>
+      <c r="H14" s="16">
+        <f>G14/G$34</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L14" s="20">
+        <v>0.73358705994291129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="15">
+        <v>0</v>
+      </c>
+      <c r="D15" s="16">
+        <f>C15/C$34</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="15">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F15" s="16">
+        <f>E15/E$34</f>
+        <v>3.805899143672692E-3</v>
+      </c>
+      <c r="G15" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="H15" s="16">
+        <f>G15/G$34</f>
+        <v>1.9138755980861236E-2</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L15" s="20">
+        <v>0.99999999999999978</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="15">
+        <v>0</v>
+      </c>
+      <c r="D16" s="16">
+        <f>C16/C$34</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="15">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F16" s="16">
+        <f>E16/E$34</f>
+        <v>1.2369172216936248E-2</v>
+      </c>
+      <c r="G16" s="15">
+        <v>0.03</v>
+      </c>
+      <c r="H16" s="16">
+        <f>G16/G$34</f>
+        <v>2.8708133971291856E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="15">
+        <v>0</v>
+      </c>
+      <c r="D17" s="16">
+        <f>C17/C$34</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="15">
+        <v>0</v>
+      </c>
+      <c r="F17" s="16">
+        <f>E17/E$34</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H17" s="16">
+        <f>G17/G$34</f>
+        <v>6.6985645933014343E-2</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="15">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="D18" s="16">
+        <f>C18/C$34</f>
+        <v>3.9385206532180597E-2</v>
+      </c>
+      <c r="E18" s="15">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="F18" s="16">
+        <f>E18/E$34</f>
+        <v>3.9010466222645097E-2</v>
+      </c>
+      <c r="G18" s="15">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="H18" s="16">
+        <f>G18/G$34</f>
+        <v>4.3062200956937781E-2</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L18" s="20">
+        <v>1.9138755980861236E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="15">
+        <v>0</v>
+      </c>
+      <c r="D19" s="16">
+        <f>C19/C$34</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="15">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F19" s="16">
+        <f>E19/E$34</f>
+        <v>2.3786869647954328E-2</v>
+      </c>
+      <c r="G19" s="15">
+        <v>0</v>
+      </c>
+      <c r="H19" s="16">
+        <f>G19/G$34</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L19" s="20">
+        <v>0.13397129186602866</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="15">
+        <v>0</v>
+      </c>
+      <c r="D20" s="16">
+        <f>C20/C$34</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="15">
+        <v>1.4E-2</v>
+      </c>
+      <c r="F20" s="16">
+        <f>E20/E$34</f>
+        <v>1.3320647002854423E-2</v>
+      </c>
+      <c r="G20" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="H20" s="16">
+        <f>G20/G$34</f>
+        <v>4.7846889952153096E-2</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L20" s="20">
+        <v>0.24880382775119611</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="15">
+        <v>0</v>
+      </c>
+      <c r="D21" s="16">
+        <f>C21/C$34</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="15">
+        <v>0</v>
+      </c>
+      <c r="F21" s="16">
+        <v>0</v>
+      </c>
+      <c r="G21" s="15">
+        <v>0</v>
+      </c>
+      <c r="H21" s="16">
+        <v>0</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L21" s="20">
+        <v>4.3062200956937781E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="15">
+        <v>0</v>
+      </c>
+      <c r="D22" s="16">
+        <f>C22/C$34</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="15">
+        <v>0</v>
+      </c>
+      <c r="F22" s="16">
+        <v>0</v>
+      </c>
+      <c r="G22" s="15">
+        <v>0</v>
+      </c>
+      <c r="H22" s="16">
+        <v>0</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L22" s="20">
+        <v>0.55502392344497586</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="15">
+        <v>0.17</v>
+      </c>
+      <c r="D23" s="16">
+        <f>C23/C$34</f>
+        <v>0.16330451488952932</v>
+      </c>
+      <c r="E23" s="15">
+        <v>0</v>
+      </c>
+      <c r="F23" s="16">
+        <f>E23/E$34</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="15">
+        <v>0</v>
+      </c>
+      <c r="H23" s="16">
+        <f>G23/G$34</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L23" s="20">
+        <v>0.99999999999999967</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="15">
+        <v>0</v>
+      </c>
+      <c r="D24" s="16">
+        <f>C24/C$34</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="15">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F24" s="16">
+        <f>E24/E$34</f>
+        <v>3.805899143672692E-3</v>
+      </c>
+      <c r="G24" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="H24" s="16">
+        <f>G24/G$34</f>
+        <v>1.9138755980861236E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="15">
+        <v>0</v>
+      </c>
+      <c r="D25" s="16">
+        <f>C25/C$34</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="15">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="F25" s="16">
+        <f>E25/E$34</f>
+        <v>0.19885823025689817</v>
+      </c>
+      <c r="G25" s="15">
+        <v>0.15</v>
+      </c>
+      <c r="H25" s="16">
+        <f>G25/G$34</f>
+        <v>0.14354066985645927</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="15">
+        <v>0</v>
+      </c>
+      <c r="D26" s="16">
+        <f>C26/C$34</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="15">
+        <v>0</v>
+      </c>
+      <c r="F26" s="16">
+        <f>E26/E$34</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H26" s="16">
+        <f>G26/G$34</f>
+        <v>6.6985645933014343E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="15">
+        <v>0</v>
+      </c>
+      <c r="D27" s="16">
+        <f>C27/C$34</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="15">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="F27" s="16">
+        <f>E27/E$34</f>
+        <v>3.2350142721217882E-2</v>
+      </c>
+      <c r="G27" s="15">
+        <v>0</v>
+      </c>
+      <c r="H27" s="16">
+        <f>G27/G$34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="15">
+        <v>0</v>
+      </c>
+      <c r="D28" s="16">
+        <v>0</v>
+      </c>
+      <c r="E28" s="15">
+        <v>0</v>
+      </c>
+      <c r="F28" s="16">
+        <v>0</v>
+      </c>
+      <c r="G28" s="15">
+        <v>0</v>
+      </c>
+      <c r="H28" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="15">
+        <v>0</v>
+      </c>
+      <c r="D29" s="16">
+        <v>0</v>
+      </c>
+      <c r="E29" s="15">
+        <v>0</v>
+      </c>
+      <c r="F29" s="16">
+        <v>0</v>
+      </c>
+      <c r="G29" s="15">
+        <v>0</v>
+      </c>
+      <c r="H29" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D30" s="16">
+        <f>C30/C$34</f>
+        <v>6.7243035542747367E-2</v>
+      </c>
+      <c r="E30" s="15">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F30" s="16">
+        <f>E30/E$34</f>
+        <v>6.184586108468125E-2</v>
+      </c>
+      <c r="G30" s="15">
+        <v>0</v>
+      </c>
+      <c r="H30" s="16">
+        <f>G30/G$34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="15">
+        <v>0.15</v>
+      </c>
+      <c r="D31" s="16">
+        <f>C31/C$34</f>
+        <v>0.14409221902017291</v>
+      </c>
+      <c r="E31" s="15">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="F31" s="16">
+        <f>E31/E$34</f>
+        <v>9.3244529019980954E-2</v>
+      </c>
+      <c r="G31" s="15">
+        <v>0</v>
+      </c>
+      <c r="H31" s="16">
+        <f>G31/G$34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="15">
+        <v>0</v>
+      </c>
+      <c r="D32" s="16">
+        <f>C32/C$34</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="15">
+        <v>0</v>
+      </c>
+      <c r="F32" s="16">
+        <f>E32/E$34</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H32" s="16">
+        <f>G32/G$34</f>
+        <v>6.6985645933014343E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="19"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="16"/>
+    </row>
+    <row r="34" spans="2:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="B34" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="17">
+        <f>SUM(C3:C32)</f>
+        <v>1.0409999999999999</v>
+      </c>
+      <c r="D34" s="18"/>
+      <c r="E34" s="17">
+        <f>SUM(E3:E32)</f>
+        <v>1.0510000000000002</v>
+      </c>
+      <c r="F34" s="18"/>
+      <c r="G34" s="17">
+        <f>SUM(G3:G32)</f>
+        <v>1.0450000000000004</v>
+      </c>
+      <c r="H34" s="18"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="B2:H32" xr:uid="{AE4C1296-1CD9-4FE1-A63A-0A0295BE2554}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:H32">
+      <sortCondition ref="B2:B32"/>
+    </sortState>
+  </autoFilter>
+  <mergeCells count="3">
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C3:H33">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E33">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F33">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G33">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H33">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C33">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D33">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E575356-B323-4D16-82DC-0AC8D69C8CE8}">
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.77734375" customWidth="1"/>
     <col min="7" max="7" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4016,11 +6842,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8272ED4D-9208-4D93-86CE-64F7610AA560}">
   <dimension ref="A3:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>

--- a/data/_general_data/diets/all_feeds.xlsx
+++ b/data/_general_data/diets/all_feeds.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\treimer\Documents\R-temp-files\local_to_global_mariculture_modelling\data\_general_data\diets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C94FC5D-E398-4942-B0B3-6C4AF369EEB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACED9575-5668-4381-8CF5-530C5ECEB3B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14112" yWindow="0" windowWidth="27228" windowHeight="16656" xr2:uid="{A3945701-1F25-4092-97C8-50D4B2B937C4}"/>
+    <workbookView xWindow="1992" yWindow="276" windowWidth="32580" windowHeight="15492" xr2:uid="{A3945701-1F25-4092-97C8-50D4B2B937C4}"/>
   </bookViews>
   <sheets>
     <sheet name="all_feeds" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">formulating!$B$2:$H$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all_feeds!$A$1:$D$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">formulating!$A$2:$H$36</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">testing!$A$1:$E$32</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
-    <pivotCache cacheId="9" r:id="rId6"/>
+    <pivotCache cacheId="33" r:id="rId5"/>
+    <pivotCache cacheId="34" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="68">
   <si>
     <t>ingredient</t>
   </si>
@@ -234,6 +235,21 @@
   <si>
     <t>Sum of Fixed %3</t>
   </si>
+  <si>
+    <t>meat-bone-meal</t>
+  </si>
+  <si>
+    <t>ovine-meal</t>
+  </si>
+  <si>
+    <t>poultry-meal</t>
+  </si>
+  <si>
+    <t>canola-meal</t>
+  </si>
+  <si>
+    <t>feather-meal</t>
+  </si>
 </sst>
 </file>
 
@@ -243,7 +259,7 @@
     <numFmt numFmtId="164" formatCode="0.000000000000000%"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,14 +396,6 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -403,7 +411,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -581,6 +589,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -774,7 +788,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -785,29 +799,28 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="33" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="33" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -888,10 +901,40 @@
   </mc:AlternateContent>
   <c:pivotSource>
     <c:name>[all_feeds.xlsx]formulating!PivotTable1</c:name>
-    <c:fmtId val="5"/>
+    <c:fmtId val="18"/>
   </c:pivotSource>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Marine-dominant</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.2256979482004726E-2"/>
+          <c:y val="0.11091071716594085"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -907,10 +950,7 @@
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -949,18 +989,13 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -970,16 +1005,173 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
-          <c:showCatName val="0"/>
+          <c:showCatName val="1"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
+          <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="-5.3817692566431215E-2"/>
+              <c:y val="-1.11731843575419E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="5.3817692566431215E-2"/>
+              <c:y val="0"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -1014,6 +1206,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-DDA7-4D5D-A08E-D6E83AFD7FA0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1029,6 +1226,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-DDA7-4D5D-A08E-D6E83AFD7FA0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1044,6 +1246,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-0A70-40F5-85D0-E0E7B76AA419}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1059,6 +1266,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-0A70-40F5-85D0-E0E7B76AA419}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1074,7 +1286,107 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-DDA7-4D5D-A08E-D6E83AFD7FA0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.3817692566431215E-2"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-0A70-40F5-85D0-E0E7B76AA419}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.3817692566431215E-2"/>
+                  <c:y val="-1.11731843575419E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-0A70-40F5-85D0-E0E7B76AA419}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>formulating!$K$2:$K$7</c:f>
@@ -1108,23 +1420,1165 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.52833813640730076</c:v>
+                  <c:v>0.52783109404990403</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.9385206532180597E-2</c:v>
+                  <c:v>4.0307101727447218E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.43227665706051877</c:v>
+                  <c:v>0.43186180422264875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5F56-4B8B-A113-6A30D1882135}"/>
+              <c16:uniqueId val="{00000000-0A70-40F5-85D0-E0E7B76AA419}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[all_feeds.xlsx]formulating!PivotTable2</c:name>
+    <c:fmtId val="12"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Plant-dominant</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.6502643473290752E-2"/>
+          <c:y val="0.12235732571502471"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="5.7306590257879542E-2"/>
+              <c:y val="6.3456513624486677E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="9.5510983763132766E-3"/>
+              <c:y val="-3.3594624860022466E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>formulating!$L$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-DD26-4CAB-9DF7-2AC66A27DD8E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-DD26-4CAB-9DF7-2AC66A27DD8E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-B468-489E-80B2-5B01C7478086}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-B468-489E-80B2-5B01C7478086}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-DD26-4CAB-9DF7-2AC66A27DD8E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.5510983763132766E-3"/>
+                  <c:y val="-3.3594624860022466E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-B468-489E-80B2-5B01C7478086}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.7306590257879542E-2"/>
+                  <c:y val="6.3456513624486677E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-B468-489E-80B2-5B01C7478086}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>formulating!$K$10:$K$15</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>animal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>marine</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>novel</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>other</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>plant</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>formulating!$L$10:$L$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21768060836501898</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9923954372623568E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.74239543726235724</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B468-489E-80B2-5B01C7478086}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[all_feeds.xlsx]formulating!PivotTable3</c:name>
+    <c:fmtId val="11"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Novel-inclusive</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.5846095670259001E-2"/>
+          <c:y val="0.11209709897373939"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>formulating!$L$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-ADE6-46BA-A410-ABC311C79992}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-ADE6-46BA-A410-ABC311C79992}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-ADE6-46BA-A410-ABC311C79992}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-ADE6-46BA-A410-ABC311C79992}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-ADE6-46BA-A410-ABC311C79992}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>formulating!$K$18:$K$23</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>animal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>marine</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>novel</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>other</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>plant</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>formulating!$L$18:$L$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.7370983446932804E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13631937682570594</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25316455696202533</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5764362220058419E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.46738072054527746</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5F57-433A-B499-D5134A874157}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1162,12 +2616,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1209,7 +2660,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -1238,7 +2693,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2229,6 +3684,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
@@ -2749,7 +4284,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2806,7 +4341,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -2857,6 +4392,1044 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -3255,23 +5828,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>240030</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>140970</xdr:rowOff>
+      <xdr:rowOff>125730</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>678180</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CC82C48-55BE-FC52-AD6C-1FB967C64D49}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9D6EB29-26EA-B293-94DD-ECC32F6B36D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3284,6 +5857,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>125730</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1D788D0-2803-188D-49EE-E5832E426024}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>270510</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{187D2EF1-3C00-8E10-AB3B-F6A63E8EB7A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3376,18 +6021,18 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Tormey Reimer" refreshedDate="45873.676018749997" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="30" xr:uid="{1AA0B8C2-2E49-4208-A152-11B8ABBB7DD2}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Tormey Reimer" refreshedDate="45875.638964699072" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="34" xr:uid="{1AA0B8C2-2E49-4208-A152-11B8ABBB7DD2}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A2:H32" sheet="formulating"/>
+    <worksheetSource ref="A2:H36" sheet="formulating"/>
   </cacheSource>
   <cacheFields count="8">
     <cacheField name="Type" numFmtId="0">
       <sharedItems count="5">
-        <s v="novel"/>
-        <s v="plant"/>
         <s v="animal"/>
         <s v="marine"/>
+        <s v="novel"/>
         <s v="other"/>
+        <s v="plant"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Ingredient" numFmtId="0">
@@ -3397,19 +6042,19 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.32"/>
     </cacheField>
     <cacheField name="Fixed %" numFmtId="165">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.30739673390970224"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.30710172744721687"/>
     </cacheField>
     <cacheField name="Raw %2" numFmtId="165">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.20899999999999999"/>
     </cacheField>
     <cacheField name="Fixed %2" numFmtId="165">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.19885823025689817"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.1986692015209125"/>
     </cacheField>
     <cacheField name="Raw %3" numFmtId="165">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.15"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="0.15"/>
     </cacheField>
     <cacheField name="Fixed %3" numFmtId="165">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.14354066985645927"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="0.14605647517039919"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -3723,260 +6368,320 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="30">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="34">
   <r>
     <x v="0"/>
-    <s v="bsf-meal"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0.05"/>
-    <n v="4.7846889952153096E-2"/>
+    <s v="chicken-protein-concentrate"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.1"/>
+    <n v="9.7370983446932804E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="feather-meal"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="meat-bone-meal"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="ovine-meal"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="poultry-meal"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="1"/>
-    <s v="canola-oil"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0.18"/>
-    <n v="0.17126546146527113"/>
-    <n v="0.15"/>
-    <n v="0.14354066985645927"/>
+    <s v="fishmeal-forage"/>
+    <n v="0.32"/>
+    <n v="0.30710172744721687"/>
+    <n v="8.7999999999999995E-2"/>
+    <n v="8.3650190114068421E-2"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="1"/>
-    <s v="chicken-protein-concentrate"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0.1"/>
-    <n v="9.5693779904306192E-2"/>
+    <s v="fishmeal-trimmings"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3.3000000000000002E-2"/>
+    <n v="3.1368821292775656E-2"/>
+    <n v="0.05"/>
+    <n v="4.8685491723466402E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="fish-oil-forage"/>
+    <n v="0.23"/>
+    <n v="0.22072936660268713"/>
+    <n v="8.4000000000000005E-2"/>
+    <n v="7.9847908745247137E-2"/>
+    <n v="0.02"/>
+    <n v="1.9474196689386561E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="fish-oil-trimmings"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.02"/>
+    <n v="1.901140684410646E-2"/>
+    <n v="0.05"/>
+    <n v="4.8685491723466402E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="krill-meal"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="4.0000000000000001E-3"/>
+    <n v="3.8022813688212919E-3"/>
+    <n v="0.02"/>
+    <n v="1.9474196689386561E-2"/>
   </r>
   <r>
     <x v="2"/>
-    <s v="coconut-oil"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0.01"/>
-    <n v="9.5147478591817297E-3"/>
-    <n v="0.02"/>
-    <n v="1.9138755980861236E-2"/>
+    <s v="bsf-meal"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.05"/>
+    <n v="4.8685491723466402E-2"/>
   </r>
   <r>
-    <x v="1"/>
-    <s v="corn-gluten"/>
-    <n v="0.04"/>
-    <n v="3.8424591738712779E-2"/>
-    <n v="7.0000000000000001E-3"/>
-    <n v="6.6603235014272115E-3"/>
-    <n v="0.08"/>
-    <n v="7.6555023923444945E-2"/>
+    <x v="2"/>
+    <s v="single-cell-protein"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="7.0000000000000007E-2"/>
+    <n v="6.815968841285297E-2"/>
   </r>
   <r>
-    <x v="1"/>
-    <s v="faba-beans"/>
-    <n v="0.02"/>
-    <n v="1.921229586935639E-2"/>
-    <n v="3.5999999999999997E-2"/>
-    <n v="3.4253092293054226E-2"/>
-    <n v="0"/>
-    <n v="0"/>
+    <x v="2"/>
+    <s v="spirulina-meal"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="7.0000000000000007E-2"/>
+    <n v="6.815968841285297E-2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="yeast-meal"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="7.0000000000000007E-2"/>
+    <n v="6.815968841285297E-2"/>
   </r>
   <r>
     <x v="3"/>
-    <s v="fishmeal-forage"/>
-    <n v="0.32"/>
-    <n v="0.30739673390970224"/>
-    <n v="8.7999999999999995E-2"/>
-    <n v="8.3729781160799224E-2"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <s v="fishmeal-trimmings"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="3.3000000000000002E-2"/>
-    <n v="3.1398667935299711E-2"/>
-    <n v="0.05"/>
-    <n v="4.7846889952153096E-2"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <s v="fish-oil-forage"/>
-    <n v="0.23"/>
-    <n v="0.2209414024975985"/>
-    <n v="8.4000000000000005E-2"/>
-    <n v="7.9923882017126538E-2"/>
-    <n v="0.02"/>
-    <n v="1.9138755980861236E-2"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <s v="fish-oil-trimmings"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0.02"/>
-    <n v="1.9029495718363459E-2"/>
-    <n v="0.05"/>
-    <n v="4.7846889952153096E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="guar-meal"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="4.2999999999999997E-2"/>
-    <n v="4.0913415794481434E-2"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="guar-meal-high-protein"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="4.2999999999999997E-2"/>
-    <n v="4.0913415794481434E-2"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <s v="krill-meal"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="4.0000000000000001E-3"/>
-    <n v="3.805899143672692E-3"/>
-    <n v="0.02"/>
-    <n v="1.9138755980861236E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="linseed-oil"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1.2999999999999999E-2"/>
-    <n v="1.2369172216936248E-2"/>
-    <n v="0.03"/>
-    <n v="2.8708133971291856E-2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="methanobacterial-meal"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="7.0000000000000007E-2"/>
-    <n v="6.6985645933014343E-2"/>
+    <s v="microingredients"/>
+    <n v="4.2000000000000003E-2"/>
+    <n v="4.0307101727447218E-2"/>
+    <n v="4.2000000000000003E-2"/>
+    <n v="3.9923954372623568E-2"/>
+    <n v="4.7E-2"/>
+    <n v="4.5764362220058419E-2"/>
   </r>
   <r>
     <x v="4"/>
-    <s v="microingredients"/>
-    <n v="4.1000000000000002E-2"/>
-    <n v="3.9385206532180597E-2"/>
-    <n v="4.1000000000000002E-2"/>
-    <n v="3.9010466222645097E-2"/>
-    <n v="4.4999999999999998E-2"/>
-    <n v="4.3062200956937781E-2"/>
+    <s v="canola-meal"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
-    <x v="1"/>
-    <s v="pea-flour"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="2.5000000000000001E-2"/>
-    <n v="2.3786869647954328E-2"/>
-    <n v="0"/>
-    <n v="0"/>
+    <x v="4"/>
+    <s v="canola-oil"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.18"/>
+    <n v="0.17110266159695814"/>
+    <n v="0.15"/>
+    <n v="0.14605647517039919"/>
   </r>
   <r>
-    <x v="1"/>
-    <s v="pea-protein-concentrate"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="1.4E-2"/>
-    <n v="1.3320647002854423E-2"/>
-    <n v="0.05"/>
-    <n v="4.7846889952153096E-2"/>
+    <x v="4"/>
+    <s v="coconut-oil"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.01"/>
+    <n v="9.5057034220532299E-3"/>
+    <m/>
+    <m/>
   </r>
   <r>
-    <x v="1"/>
-    <s v="rapeseed-oil"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <x v="4"/>
+    <s v="corn-gluten"/>
+    <n v="0.04"/>
+    <n v="3.8387715930902108E-2"/>
+    <n v="7.0000000000000001E-3"/>
+    <n v="6.6539923954372611E-3"/>
+    <n v="0.08"/>
+    <n v="7.7896786757546244E-2"/>
   </r>
   <r>
-    <x v="0"/>
-    <s v="single-cell-protein"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <x v="4"/>
+    <s v="faba-beans"/>
+    <n v="0.02"/>
+    <n v="1.9193857965451054E-2"/>
+    <n v="3.5999999999999997E-2"/>
+    <n v="3.4220532319391622E-2"/>
     <n v="0"/>
     <n v="0"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="4"/>
+    <s v="guar-meal"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="4.2999999999999997E-2"/>
+    <n v="4.0874524714828886E-2"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="guar-meal-high-protein"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="4.2999999999999997E-2"/>
+    <n v="4.0874524714828886E-2"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="linseed-oil"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1.2999999999999999E-2"/>
+    <n v="1.2357414448669198E-2"/>
+    <n v="0.03"/>
+    <n v="2.9211295034079838E-2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="pea-flour"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="2.5000000000000001E-2"/>
+    <n v="2.3764258555133075E-2"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="pea-protein-concentrate"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1.4E-2"/>
+    <n v="1.3307984790874522E-2"/>
+    <n v="0.05"/>
+    <n v="4.8685491723466402E-2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="rapeseed-oil"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
     <s v="soybean-meal"/>
     <n v="0.17"/>
-    <n v="0.16330451488952932"/>
+    <n v="0.16314779270633398"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="4"/>
     <s v="soybean-oil"/>
     <n v="0"/>
     <n v="0"/>
     <n v="4.0000000000000001E-3"/>
-    <n v="3.805899143672692E-3"/>
+    <n v="3.8022813688212919E-3"/>
     <n v="0.02"/>
-    <n v="1.9138755980861236E-2"/>
+    <n v="1.9474196689386561E-2"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="4"/>
     <s v="soy-protein-concentrate"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0.20899999999999999"/>
-    <n v="0.19885823025689817"/>
+    <n v="0.1986692015209125"/>
     <n v="0.15"/>
-    <n v="0.14354066985645927"/>
+    <n v="0.14605647517039919"/>
   </r>
   <r>
-    <x v="0"/>
-    <s v="spirulina-meal"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="7.0000000000000007E-2"/>
-    <n v="6.6985645933014343E-2"/>
+    <x v="4"/>
+    <s v="sunflower-meal"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3.4000000000000002E-2"/>
+    <n v="3.231939163498098E-2"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
-    <x v="1"/>
-    <s v="sunflower-meal"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="3.4000000000000002E-2"/>
-    <n v="3.2350142721217882E-2"/>
+    <x v="4"/>
+    <s v="sunflower-meal-high-protein"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
     <n v="0"/>
     <n v="0"/>
   </r>
   <r>
-    <x v="1"/>
-    <s v="sunflower-meal-high-protein"/>
+    <x v="4"/>
+    <s v="tapioca"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -3985,59 +6690,343 @@
     <n v="0"/>
   </r>
   <r>
-    <x v="1"/>
-    <s v="tapioca"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <x v="4"/>
+    <s v="wheat"/>
+    <n v="7.0000000000000007E-2"/>
+    <n v="6.71785028790787E-2"/>
+    <n v="6.5000000000000002E-2"/>
+    <n v="6.1787072243345995E-2"/>
     <n v="0"/>
     <n v="0"/>
   </r>
   <r>
-    <x v="1"/>
-    <s v="wheat"/>
-    <n v="7.0000000000000007E-2"/>
-    <n v="6.7243035542747367E-2"/>
-    <n v="6.5000000000000002E-2"/>
-    <n v="6.184586108468125E-2"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
+    <x v="4"/>
     <s v="wheat-gluten"/>
     <n v="0.15"/>
-    <n v="0.14409221902017291"/>
+    <n v="0.14395393474088292"/>
     <n v="9.8000000000000004E-2"/>
-    <n v="9.3244529019980954E-2"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="yeast-meal"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="7.0000000000000007E-2"/>
-    <n v="6.6985645933014343E-2"/>
+    <n v="9.3155893536121651E-2"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{83628B94-ADA3-4417-AAFC-398D044A1D1F}" name="PivotTable3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{43DC3850-6476-413F-9B32-C7A4BBF15A3A}" name="PivotTable2" cacheId="34" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
+  <location ref="K9:L15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Fixed %2" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="8">
+    <chartFormat chart="1" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="12" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="12" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="12" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="12" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="12" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="12" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D3018706-BFE2-41A1-9C0D-117282674616}" name="PivotTable1" cacheId="34" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
+  <location ref="K1:L7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Fixed %" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="8">
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="18" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="18" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="18" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="18" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="18" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="18" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{83628B94-ADA3-4417-AAFC-398D044A1D1F}" name="PivotTable3" cacheId="34" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
   <location ref="K17:L23" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
       <items count="6">
+        <item x="0"/>
+        <item x="1"/>
         <item x="2"/>
         <item x="3"/>
-        <item x="0"/>
         <item x="4"/>
-        <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -4078,71 +7067,8 @@
   <dataFields count="1">
     <dataField name="Sum of Fixed %3" fld="7" baseField="0" baseItem="0"/>
   </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{43DC3850-6476-413F-9B32-C7A4BBF15A3A}" name="PivotTable2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="K9:L15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="8">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="2"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Fixed %2" fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="1" format="1" series="1">
+  <chartFormats count="6">
+    <chartFormat chart="11" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -4151,103 +7077,62 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="3" format="1" series="1">
+    <chartFormat chart="11" format="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
+        <references count="2">
           <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
             <x v="0"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D3018706-BFE2-41A1-9C0D-117282674616}" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
-  <location ref="K1:L7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="8">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="2"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Fixed %" fld="3" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="3">
-    <chartFormat chart="1" format="0" series="1">
+    <chartFormat chart="11" format="2">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
+        <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="3" format="0" series="1">
+    <chartFormat chart="11" format="3">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
+        <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="5" format="0" series="1">
+    <chartFormat chart="11" format="4">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
+        <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="11" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
           </reference>
         </references>
       </pivotArea>
@@ -4266,7 +7151,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{44B1F1FC-026A-4C62-9C81-84E8C0041AE2}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{44B1F1FC-026A-4C62-9C81-84E8C0041AE2}" name="PivotTable1" cacheId="33" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:F9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
@@ -4712,10 +7597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76559CA1-42BE-4BD5-A831-409A491DC0E7}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D2" sqref="D2:D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4731,13 +7616,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -4748,21 +7633,21 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>4.8685491723466402E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="B3">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -4770,83 +7655,80 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1</v>
+        <v>0.17110266159695814</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.14605647517039919</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>9.7370983446932804E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>7.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.08</v>
-      </c>
-      <c r="D6">
-        <v>0.04</v>
+        <v>9.5057034220532299E-3</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B7">
-        <v>3.5999999999999997E-2</v>
+        <v>3.8387715930902108E-2</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>6.6539923954372611E-3</v>
       </c>
       <c r="D7">
-        <v>0.02</v>
+        <v>7.7896786757546244E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>8.7999999999999995E-2</v>
+        <v>1.9193857965451054E-2</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>3.4220532319391622E-2</v>
       </c>
       <c r="D8">
-        <v>0.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="B9">
-        <v>3.3000000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -4854,69 +7736,69 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>8.4000000000000005E-2</v>
+        <v>0.30710172744721687</v>
       </c>
       <c r="C10">
-        <v>0.02</v>
+        <v>8.3650190114068421E-2</v>
       </c>
       <c r="D10">
-        <v>0.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0.05</v>
+        <v>3.1368821292775656E-2</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>4.8685491723466402E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>4.2999999999999997E-2</v>
+        <v>0.22072936660268713</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>7.9847908745247137E-2</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1.9474196689386561E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>4.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>0.02</v>
+        <v>1.901140684410646E-2</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>4.8685491723466402E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>1.2999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>0.03</v>
+        <v>4.0874524714828886E-2</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -4924,13 +7806,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>7.0000000000000007E-2</v>
+        <v>4.0874524714828886E-2</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -4938,35 +7820,35 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>3.8022813688212919E-3</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1.9474196689386561E-2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>1.4E-2</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>0.05</v>
+        <v>1.2357414448669198E-2</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>2.9211295034079838E-2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -4975,32 +7857,32 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>4.0000000000000001E-3</v>
+        <v>4.0307101727447218E-2</v>
       </c>
       <c r="C19">
-        <v>0.02</v>
+        <v>3.9923954372623568E-2</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>4.5764362220058419E-2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="B20">
-        <v>0.20899999999999999</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -5008,13 +7890,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21">
-        <v>7.0000000000000007E-2</v>
+        <v>2.3764258555133075E-2</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -5022,85 +7904,216 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B22">
-        <v>3.4000000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1.3307984790874522E-2</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>4.8685491723466402E-2</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="B23">
-        <v>6.5000000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>9.8000000000000004E-2</v>
+        <v>0</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>4.1000000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>4.4999999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>4.1000000000000002E-2</v>
+        <v>6.815968841285297E-2</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26">
+        <v>0.16314779270633398</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>3.8022813688212919E-3</v>
+      </c>
+      <c r="D27">
+        <v>1.9474196689386561E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0.1986692015209125</v>
+      </c>
+      <c r="D28">
+        <v>0.14605647517039919</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>6.815968841285297E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>3.231939163498098E-2</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33">
+        <v>6.71785028790787E-2</v>
+      </c>
+      <c r="C33">
+        <v>6.1787072243345995E-2</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34">
+        <v>0.14395393474088292</v>
+      </c>
+      <c r="C34">
+        <v>9.3155893536121651E-2</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>27</v>
       </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>6.815968841285297E-2</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D35" xr:uid="{76559CA1-42BE-4BD5-A831-409A491DC0E7}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D35">
+      <sortCondition ref="A1:A35"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE4C1296-1CD9-4FE1-A63A-0A0295BE2554}">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5108,23 +8121,24 @@
     <col min="2" max="2" width="26.5546875" customWidth="1"/>
     <col min="3" max="8" width="13.88671875" customWidth="1"/>
     <col min="11" max="11" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B1" s="9"/>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="11" t="s">
+      <c r="D1" s="21"/>
+      <c r="E1" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="11" t="s">
+      <c r="F1" s="21"/>
+      <c r="G1" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="12"/>
+      <c r="H1" s="21"/>
       <c r="K1" s="3" t="s">
         <v>42</v>
       </c>
@@ -5133,140 +8147,140 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="9" t="s">
         <v>57</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="20">
+      <c r="L2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="15">
-        <v>0</v>
-      </c>
-      <c r="D3" s="16">
-        <f>C3/C$34</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="15">
-        <v>0</v>
-      </c>
-      <c r="F3" s="16">
-        <f>E3/E$34</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="15">
-        <v>0.05</v>
-      </c>
-      <c r="H3" s="16">
-        <f>G3/G$34</f>
-        <v>4.7846889952153096E-2</v>
+        <v>6</v>
+      </c>
+      <c r="C3" s="11">
+        <v>0</v>
+      </c>
+      <c r="D3" s="12">
+        <f t="shared" ref="D3:D32" si="0">C3/C$38</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="11">
+        <v>0</v>
+      </c>
+      <c r="F3" s="12">
+        <f t="shared" ref="F3:F27" si="1">E3/E$38</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="H3" s="12">
+        <f t="shared" ref="H3:H19" si="2">G3/G$38</f>
+        <v>9.7370983446932804E-2</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L3" s="20">
-        <v>0.52833813640730076</v>
+      <c r="L3">
+        <v>0.52783109404990403</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="15">
-        <v>0</v>
-      </c>
-      <c r="D4" s="16">
-        <f>C4/C$34</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="15">
-        <v>0.18</v>
-      </c>
-      <c r="F4" s="16">
-        <f>E4/E$34</f>
-        <v>0.17126546146527113</v>
-      </c>
-      <c r="G4" s="15">
-        <v>0.15</v>
-      </c>
-      <c r="H4" s="16">
-        <f>G4/G$34</f>
-        <v>0.14354066985645927</v>
+        <v>67</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0</v>
+      </c>
+      <c r="D4" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E4" s="11">
+        <v>0</v>
+      </c>
+      <c r="F4" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G4" s="11">
+        <v>0</v>
+      </c>
+      <c r="H4" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="20">
+      <c r="L4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="15">
-        <v>0</v>
-      </c>
-      <c r="D5" s="16">
-        <f>C5/C$34</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="15">
-        <v>0</v>
-      </c>
-      <c r="F5" s="16">
-        <f>E5/E$34</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="15">
-        <v>0.1</v>
-      </c>
-      <c r="H5" s="16">
-        <f>G5/G$34</f>
-        <v>9.5693779904306192E-2</v>
+        <v>63</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0</v>
+      </c>
+      <c r="D5" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="11">
+        <v>0</v>
+      </c>
+      <c r="F5" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="11">
+        <v>0</v>
+      </c>
+      <c r="H5" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="L5" s="20">
-        <v>3.9385206532180597E-2</v>
+      <c r="L5">
+        <v>4.0307101727447218E-2</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -5274,97 +8288,97 @@
         <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="15">
-        <v>0</v>
-      </c>
-      <c r="D6" s="16">
-        <f>C6/C$34</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="15">
-        <v>0.01</v>
-      </c>
-      <c r="F6" s="16">
-        <f>E6/E$34</f>
-        <v>9.5147478591817297E-3</v>
-      </c>
-      <c r="G6" s="15">
-        <v>0.02</v>
-      </c>
-      <c r="H6" s="16">
-        <f>G6/G$34</f>
-        <v>1.9138755980861236E-2</v>
+        <v>64</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0</v>
+      </c>
+      <c r="D6" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="11">
+        <v>0</v>
+      </c>
+      <c r="F6" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0</v>
+      </c>
+      <c r="H6" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="L6" s="20">
-        <v>0.43227665706051877</v>
+      <c r="L6">
+        <v>0.43186180422264875</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="15">
-        <v>0.04</v>
-      </c>
-      <c r="D7" s="16">
-        <f>C7/C$34</f>
-        <v>3.8424591738712779E-2</v>
-      </c>
-      <c r="E7" s="15">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="F7" s="16">
-        <f>E7/E$34</f>
-        <v>6.6603235014272115E-3</v>
-      </c>
-      <c r="G7" s="15">
-        <v>0.08</v>
-      </c>
-      <c r="H7" s="16">
-        <f>G7/G$34</f>
-        <v>7.6555023923444945E-2</v>
+        <v>65</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0</v>
+      </c>
+      <c r="D7" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="11">
+        <v>0</v>
+      </c>
+      <c r="F7" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="11">
+        <v>0</v>
+      </c>
+      <c r="H7" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="L7" s="20">
+      <c r="L7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="15">
-        <v>0.02</v>
-      </c>
-      <c r="D8" s="16">
-        <f>C8/C$34</f>
-        <v>1.921229586935639E-2</v>
-      </c>
-      <c r="E8" s="15">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="F8" s="16">
-        <f>E8/E$34</f>
-        <v>3.4253092293054226E-2</v>
-      </c>
-      <c r="G8" s="15">
-        <v>0</v>
-      </c>
-      <c r="H8" s="16">
-        <f>G8/G$34</f>
+        <v>9</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0.32</v>
+      </c>
+      <c r="D8" s="12">
+        <f t="shared" si="0"/>
+        <v>0.30710172744721687</v>
+      </c>
+      <c r="E8" s="11">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="F8" s="12">
+        <f t="shared" si="1"/>
+        <v>8.3650190114068421E-2</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0</v>
+      </c>
+      <c r="H8" s="12">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5373,28 +8387,28 @@
         <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="15">
-        <v>0.32</v>
-      </c>
-      <c r="D9" s="16">
-        <f>C9/C$34</f>
-        <v>0.30739673390970224</v>
-      </c>
-      <c r="E9" s="15">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="F9" s="16">
-        <f>E9/E$34</f>
-        <v>8.3729781160799224E-2</v>
-      </c>
-      <c r="G9" s="15">
-        <v>0</v>
-      </c>
-      <c r="H9" s="16">
-        <f>G9/G$34</f>
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="C9" s="11">
+        <v>0</v>
+      </c>
+      <c r="D9" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="11">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="F9" s="12">
+        <f t="shared" si="1"/>
+        <v>3.1368821292775656E-2</v>
+      </c>
+      <c r="G9" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="H9" s="12">
+        <f t="shared" si="2"/>
+        <v>4.8685491723466402E-2</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>42</v>
@@ -5408,34 +8422,34 @@
         <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="15">
-        <v>0</v>
-      </c>
-      <c r="D10" s="16">
-        <f>C10/C$34</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="15">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="F10" s="16">
-        <f>E10/E$34</f>
-        <v>3.1398667935299711E-2</v>
-      </c>
-      <c r="G10" s="15">
-        <v>0.05</v>
-      </c>
-      <c r="H10" s="16">
-        <f>G10/G$34</f>
-        <v>4.7846889952153096E-2</v>
+        <v>11</v>
+      </c>
+      <c r="C10" s="11">
+        <v>0.23</v>
+      </c>
+      <c r="D10" s="12">
+        <f t="shared" si="0"/>
+        <v>0.22072936660268713</v>
+      </c>
+      <c r="E10" s="11">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="F10" s="12">
+        <f t="shared" si="1"/>
+        <v>7.9847908745247137E-2</v>
+      </c>
+      <c r="G10" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="H10" s="12">
+        <f t="shared" si="2"/>
+        <v>1.9474196689386561E-2</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="L10" s="20">
-        <v>9.5147478591817297E-3</v>
+      <c r="L10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -5443,34 +8457,34 @@
         <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="15">
-        <v>0.23</v>
-      </c>
-      <c r="D11" s="16">
-        <f>C11/C$34</f>
-        <v>0.2209414024975985</v>
-      </c>
-      <c r="E11" s="15">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="F11" s="16">
-        <f>E11/E$34</f>
-        <v>7.9923882017126538E-2</v>
-      </c>
-      <c r="G11" s="15">
+        <v>12</v>
+      </c>
+      <c r="C11" s="11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="11">
         <v>0.02</v>
       </c>
-      <c r="H11" s="16">
-        <f>G11/G$34</f>
-        <v>1.9138755980861236E-2</v>
+      <c r="F11" s="12">
+        <f t="shared" si="1"/>
+        <v>1.901140684410646E-2</v>
+      </c>
+      <c r="G11" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="H11" s="12">
+        <f t="shared" si="2"/>
+        <v>4.8685491723466402E-2</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L11" s="20">
-        <v>0.2178877259752616</v>
+      <c r="L11">
+        <v>0.21768060836501898</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -5478,197 +8492,197 @@
         <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="15">
-        <v>0</v>
-      </c>
-      <c r="D12" s="16">
-        <f>C12/C$34</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="15">
+        <v>14</v>
+      </c>
+      <c r="C12" s="11">
+        <v>0</v>
+      </c>
+      <c r="D12" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="11">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F12" s="12">
+        <f t="shared" si="1"/>
+        <v>3.8022813688212919E-3</v>
+      </c>
+      <c r="G12" s="11">
         <v>0.02</v>
       </c>
-      <c r="F12" s="16">
-        <f>E12/E$34</f>
-        <v>1.9029495718363459E-2</v>
-      </c>
-      <c r="G12" s="15">
-        <v>0.05</v>
-      </c>
-      <c r="H12" s="16">
-        <f>G12/G$34</f>
-        <v>4.7846889952153096E-2</v>
+      <c r="H12" s="12">
+        <f t="shared" si="2"/>
+        <v>1.9474196689386561E-2</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L12" s="20">
+      <c r="L12">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="15">
-        <v>0</v>
-      </c>
-      <c r="D13" s="16">
-        <f>C13/C$34</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="15">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="F13" s="16">
-        <f>E13/E$34</f>
-        <v>4.0913415794481434E-2</v>
-      </c>
-      <c r="G13" s="15">
-        <v>0</v>
-      </c>
-      <c r="H13" s="16">
-        <f>G13/G$34</f>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="C13" s="11">
+        <v>0</v>
+      </c>
+      <c r="D13" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="11">
+        <v>0</v>
+      </c>
+      <c r="F13" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="H13" s="12">
+        <f t="shared" si="2"/>
+        <v>4.8685491723466402E-2</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="L13" s="20">
-        <v>3.9010466222645097E-2</v>
+      <c r="L13">
+        <v>3.9923954372623568E-2</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="15">
-        <v>0</v>
-      </c>
-      <c r="D14" s="16">
-        <f>C14/C$34</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="15">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="F14" s="16">
-        <f>E14/E$34</f>
-        <v>4.0913415794481434E-2</v>
-      </c>
-      <c r="G14" s="15">
-        <v>0</v>
-      </c>
-      <c r="H14" s="16">
-        <f>G14/G$34</f>
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="C14" s="11">
+        <v>0</v>
+      </c>
+      <c r="D14" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="11">
+        <v>0</v>
+      </c>
+      <c r="F14" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H14" s="12">
+        <f t="shared" si="2"/>
+        <v>6.815968841285297E-2</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="L14" s="20">
-        <v>0.73358705994291129</v>
+      <c r="L14">
+        <v>0.74239543726235724</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="15">
-        <v>0</v>
-      </c>
-      <c r="D15" s="16">
-        <f>C15/C$34</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="15">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="F15" s="16">
-        <f>E15/E$34</f>
-        <v>3.805899143672692E-3</v>
-      </c>
-      <c r="G15" s="15">
-        <v>0.02</v>
-      </c>
-      <c r="H15" s="16">
-        <f>G15/G$34</f>
-        <v>1.9138755980861236E-2</v>
+        <v>35</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="11">
+        <v>0</v>
+      </c>
+      <c r="D15" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="11">
+        <v>0</v>
+      </c>
+      <c r="F15" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H15" s="12">
+        <f t="shared" si="2"/>
+        <v>6.815968841285297E-2</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="L15" s="20">
+      <c r="L15">
         <v>0.99999999999999978</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="15">
-        <v>0</v>
-      </c>
-      <c r="D16" s="16">
-        <f>C16/C$34</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="15">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="F16" s="16">
-        <f>E16/E$34</f>
-        <v>1.2369172216936248E-2</v>
-      </c>
-      <c r="G16" s="15">
-        <v>0.03</v>
-      </c>
-      <c r="H16" s="16">
-        <f>G16/G$34</f>
-        <v>2.8708133971291856E-2</v>
+        <v>35</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="11">
+        <v>0</v>
+      </c>
+      <c r="D16" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="11">
+        <v>0</v>
+      </c>
+      <c r="F16" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H16" s="12">
+        <f t="shared" si="2"/>
+        <v>6.815968841285297E-2</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="15">
-        <v>0</v>
-      </c>
-      <c r="D17" s="16">
-        <f>C17/C$34</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="15">
-        <v>0</v>
-      </c>
-      <c r="F17" s="16">
-        <f>E17/E$34</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="H17" s="16">
-        <f>G17/G$34</f>
-        <v>6.6985645933014343E-2</v>
+        <v>26</v>
+      </c>
+      <c r="C17" s="11">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="D17" s="12">
+        <f t="shared" si="0"/>
+        <v>4.0307101727447218E-2</v>
+      </c>
+      <c r="E17" s="11">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="F17" s="12">
+        <f t="shared" si="1"/>
+        <v>3.9923954372623568E-2</v>
+      </c>
+      <c r="G17" s="11">
+        <v>4.7E-2</v>
+      </c>
+      <c r="H17" s="12">
+        <f t="shared" si="2"/>
+        <v>4.5764362220058419E-2</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>42</v>
@@ -5679,37 +8693,37 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="15">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="D18" s="16">
-        <f>C18/C$34</f>
-        <v>3.9385206532180597E-2</v>
-      </c>
-      <c r="E18" s="15">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="F18" s="16">
-        <f>E18/E$34</f>
-        <v>3.9010466222645097E-2</v>
-      </c>
-      <c r="G18" s="15">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="H18" s="16">
-        <f>G18/G$34</f>
-        <v>4.3062200956937781E-2</v>
+        <v>66</v>
+      </c>
+      <c r="C18" s="11">
+        <v>0</v>
+      </c>
+      <c r="D18" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="11">
+        <v>0</v>
+      </c>
+      <c r="F18" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="11">
+        <v>0</v>
+      </c>
+      <c r="H18" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="L18" s="20">
-        <v>1.9138755980861236E-2</v>
+      <c r="L18">
+        <v>9.7370983446932804E-2</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -5717,34 +8731,34 @@
         <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="15">
-        <v>0</v>
-      </c>
-      <c r="D19" s="16">
-        <f>C19/C$34</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="F19" s="16">
-        <f>E19/E$34</f>
-        <v>2.3786869647954328E-2</v>
-      </c>
-      <c r="G19" s="15">
-        <v>0</v>
-      </c>
-      <c r="H19" s="16">
-        <f>G19/G$34</f>
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="C19" s="11">
+        <v>0</v>
+      </c>
+      <c r="D19" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="11">
+        <v>0.18</v>
+      </c>
+      <c r="F19" s="12">
+        <f t="shared" si="1"/>
+        <v>0.17110266159695814</v>
+      </c>
+      <c r="G19" s="11">
+        <v>0.15</v>
+      </c>
+      <c r="H19" s="12">
+        <f t="shared" si="2"/>
+        <v>0.14605647517039919</v>
       </c>
       <c r="K19" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L19" s="20">
-        <v>0.13397129186602866</v>
+      <c r="L19">
+        <v>0.13631937682570594</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -5752,34 +8766,29 @@
         <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="15">
-        <v>0</v>
-      </c>
-      <c r="D20" s="16">
-        <f>C20/C$34</f>
-        <v>0</v>
-      </c>
-      <c r="E20" s="15">
-        <v>1.4E-2</v>
-      </c>
-      <c r="F20" s="16">
-        <f>E20/E$34</f>
-        <v>1.3320647002854423E-2</v>
-      </c>
-      <c r="G20" s="15">
-        <v>0.05</v>
-      </c>
-      <c r="H20" s="16">
-        <f>G20/G$34</f>
-        <v>4.7846889952153096E-2</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C20" s="11">
+        <v>0</v>
+      </c>
+      <c r="D20" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="F20" s="12">
+        <f t="shared" si="1"/>
+        <v>9.5057034220532299E-3</v>
+      </c>
+      <c r="G20" s="18"/>
+      <c r="H20" s="19"/>
       <c r="K20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L20" s="20">
-        <v>0.24880382775119611</v>
+      <c r="L20">
+        <v>0.25316455696202533</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -5787,65 +8796,69 @@
         <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="15">
-        <v>0</v>
-      </c>
-      <c r="D21" s="16">
-        <f>C21/C$34</f>
-        <v>0</v>
-      </c>
-      <c r="E21" s="15">
-        <v>0</v>
-      </c>
-      <c r="F21" s="16">
-        <v>0</v>
-      </c>
-      <c r="G21" s="15">
-        <v>0</v>
-      </c>
-      <c r="H21" s="16">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="C21" s="11">
+        <v>0.04</v>
+      </c>
+      <c r="D21" s="12">
+        <f t="shared" si="0"/>
+        <v>3.8387715930902108E-2</v>
+      </c>
+      <c r="E21" s="11">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F21" s="12">
+        <f t="shared" si="1"/>
+        <v>6.6539923954372611E-3</v>
+      </c>
+      <c r="G21" s="11">
+        <v>0.08</v>
+      </c>
+      <c r="H21" s="12">
+        <f t="shared" ref="H21:H27" si="3">G21/G$38</f>
+        <v>7.7896786757546244E-2</v>
       </c>
       <c r="K21" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="L21" s="20">
-        <v>4.3062200956937781E-2</v>
+      <c r="L21">
+        <v>4.5764362220058419E-2</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="15">
-        <v>0</v>
-      </c>
-      <c r="D22" s="16">
-        <f>C22/C$34</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="15">
-        <v>0</v>
-      </c>
-      <c r="F22" s="16">
-        <v>0</v>
-      </c>
-      <c r="G22" s="15">
-        <v>0</v>
-      </c>
-      <c r="H22" s="16">
+        <v>8</v>
+      </c>
+      <c r="C22" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="D22" s="12">
+        <f t="shared" si="0"/>
+        <v>1.9193857965451054E-2</v>
+      </c>
+      <c r="E22" s="11">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="F22" s="12">
+        <f t="shared" si="1"/>
+        <v>3.4220532319391622E-2</v>
+      </c>
+      <c r="G22" s="11">
+        <v>0</v>
+      </c>
+      <c r="H22" s="12">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K22" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="L22" s="20">
-        <v>0.55502392344497586</v>
+      <c r="L22">
+        <v>0.46738072054527746</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -5853,34 +8866,34 @@
         <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="15">
-        <v>0.17</v>
-      </c>
-      <c r="D23" s="16">
-        <f>C23/C$34</f>
-        <v>0.16330451488952932</v>
-      </c>
-      <c r="E23" s="15">
-        <v>0</v>
-      </c>
-      <c r="F23" s="16">
-        <f>E23/E$34</f>
-        <v>0</v>
-      </c>
-      <c r="G23" s="15">
-        <v>0</v>
-      </c>
-      <c r="H23" s="16">
-        <f>G23/G$34</f>
+        <v>13</v>
+      </c>
+      <c r="C23" s="11">
+        <v>0</v>
+      </c>
+      <c r="D23" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="11">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="F23" s="12">
+        <f t="shared" si="1"/>
+        <v>4.0874524714828886E-2</v>
+      </c>
+      <c r="G23" s="11">
+        <v>0</v>
+      </c>
+      <c r="H23" s="12">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K23" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="L23" s="20">
-        <v>0.99999999999999967</v>
+      <c r="L23">
+        <v>0.99999999999999989</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -5888,28 +8901,28 @@
         <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="15">
-        <v>0</v>
-      </c>
-      <c r="D24" s="16">
-        <f>C24/C$34</f>
-        <v>0</v>
-      </c>
-      <c r="E24" s="15">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="F24" s="16">
-        <f>E24/E$34</f>
-        <v>3.805899143672692E-3</v>
-      </c>
-      <c r="G24" s="15">
-        <v>0.02</v>
-      </c>
-      <c r="H24" s="16">
-        <f>G24/G$34</f>
-        <v>1.9138755980861236E-2</v>
+        <v>49</v>
+      </c>
+      <c r="C24" s="11">
+        <v>0</v>
+      </c>
+      <c r="D24" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="11">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="F24" s="12">
+        <f t="shared" si="1"/>
+        <v>4.0874524714828886E-2</v>
+      </c>
+      <c r="G24" s="11">
+        <v>0</v>
+      </c>
+      <c r="H24" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -5917,57 +8930,57 @@
         <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="15">
-        <v>0</v>
-      </c>
-      <c r="D25" s="16">
-        <f>C25/C$34</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="15">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="F25" s="16">
-        <f>E25/E$34</f>
-        <v>0.19885823025689817</v>
-      </c>
-      <c r="G25" s="15">
-        <v>0.15</v>
-      </c>
-      <c r="H25" s="16">
-        <f>G25/G$34</f>
-        <v>0.14354066985645927</v>
+        <v>15</v>
+      </c>
+      <c r="C25" s="11">
+        <v>0</v>
+      </c>
+      <c r="D25" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="11">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F25" s="12">
+        <f t="shared" si="1"/>
+        <v>1.2357414448669198E-2</v>
+      </c>
+      <c r="G25" s="11">
+        <v>0.03</v>
+      </c>
+      <c r="H25" s="12">
+        <f t="shared" si="3"/>
+        <v>2.9211295034079838E-2</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="15">
-        <v>0</v>
-      </c>
-      <c r="D26" s="16">
-        <f>C26/C$34</f>
-        <v>0</v>
-      </c>
-      <c r="E26" s="15">
-        <v>0</v>
-      </c>
-      <c r="F26" s="16">
-        <f>E26/E$34</f>
-        <v>0</v>
-      </c>
-      <c r="G26" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="H26" s="16">
-        <f>G26/G$34</f>
-        <v>6.6985645933014343E-2</v>
+        <v>17</v>
+      </c>
+      <c r="C26" s="11">
+        <v>0</v>
+      </c>
+      <c r="D26" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F26" s="12">
+        <f t="shared" si="1"/>
+        <v>2.3764258555133075E-2</v>
+      </c>
+      <c r="G26" s="11">
+        <v>0</v>
+      </c>
+      <c r="H26" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -5975,28 +8988,28 @@
         <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="15">
-        <v>0</v>
-      </c>
-      <c r="D27" s="16">
-        <f>C27/C$34</f>
-        <v>0</v>
-      </c>
-      <c r="E27" s="15">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="F27" s="16">
-        <f>E27/E$34</f>
-        <v>3.2350142721217882E-2</v>
-      </c>
-      <c r="G27" s="15">
-        <v>0</v>
-      </c>
-      <c r="H27" s="16">
-        <f>G27/G$34</f>
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="C27" s="11">
+        <v>0</v>
+      </c>
+      <c r="D27" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="11">
+        <v>1.4E-2</v>
+      </c>
+      <c r="F27" s="12">
+        <f t="shared" si="1"/>
+        <v>1.3307984790874522E-2</v>
+      </c>
+      <c r="G27" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="H27" s="12">
+        <f t="shared" si="3"/>
+        <v>4.8685491723466402E-2</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -6004,24 +9017,25 @@
         <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="15">
-        <v>0</v>
-      </c>
-      <c r="D28" s="16">
-        <v>0</v>
-      </c>
-      <c r="E28" s="15">
-        <v>0</v>
-      </c>
-      <c r="F28" s="16">
-        <v>0</v>
-      </c>
-      <c r="G28" s="15">
-        <v>0</v>
-      </c>
-      <c r="H28" s="16">
+        <v>31</v>
+      </c>
+      <c r="C28" s="11">
+        <v>0</v>
+      </c>
+      <c r="D28" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="11">
+        <v>0</v>
+      </c>
+      <c r="F28" s="12">
+        <v>0</v>
+      </c>
+      <c r="G28" s="11">
+        <v>0</v>
+      </c>
+      <c r="H28" s="12">
         <v>0</v>
       </c>
     </row>
@@ -6030,24 +9044,27 @@
         <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="15">
-        <v>0</v>
-      </c>
-      <c r="D29" s="16">
-        <v>0</v>
-      </c>
-      <c r="E29" s="15">
-        <v>0</v>
-      </c>
-      <c r="F29" s="16">
-        <v>0</v>
-      </c>
-      <c r="G29" s="15">
-        <v>0</v>
-      </c>
-      <c r="H29" s="16">
+        <v>19</v>
+      </c>
+      <c r="C29" s="11">
+        <v>0.17</v>
+      </c>
+      <c r="D29" s="12">
+        <f t="shared" si="0"/>
+        <v>0.16314779270633398</v>
+      </c>
+      <c r="E29" s="11">
+        <v>0</v>
+      </c>
+      <c r="F29" s="12">
+        <f>E29/E$38</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="11">
+        <v>0</v>
+      </c>
+      <c r="H29" s="12">
+        <f>G29/G$38</f>
         <v>0</v>
       </c>
     </row>
@@ -6056,28 +9073,28 @@
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D30" s="16">
-        <f>C30/C$34</f>
-        <v>6.7243035542747367E-2</v>
-      </c>
-      <c r="E30" s="15">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="F30" s="16">
-        <f>E30/E$34</f>
-        <v>6.184586108468125E-2</v>
-      </c>
-      <c r="G30" s="15">
-        <v>0</v>
-      </c>
-      <c r="H30" s="16">
-        <f>G30/G$34</f>
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="C30" s="11">
+        <v>0</v>
+      </c>
+      <c r="D30" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="11">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F30" s="12">
+        <f>E30/E$38</f>
+        <v>3.8022813688212919E-3</v>
+      </c>
+      <c r="G30" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="H30" s="12">
+        <f>G30/G$38</f>
+        <v>1.9474196689386561E-2</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -6085,92 +9102,212 @@
         <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="15">
+        <v>21</v>
+      </c>
+      <c r="C31" s="11">
+        <v>0</v>
+      </c>
+      <c r="D31" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="11">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="F31" s="12">
+        <f>E31/E$38</f>
+        <v>0.1986692015209125</v>
+      </c>
+      <c r="G31" s="11">
         <v>0.15</v>
       </c>
-      <c r="D31" s="16">
-        <f>C31/C$34</f>
-        <v>0.14409221902017291</v>
-      </c>
-      <c r="E31" s="15">
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="F31" s="16">
-        <f>E31/E$34</f>
-        <v>9.3244529019980954E-2</v>
-      </c>
-      <c r="G31" s="15">
-        <v>0</v>
-      </c>
-      <c r="H31" s="16">
-        <f>G31/G$34</f>
-        <v>0</v>
+      <c r="H31" s="12">
+        <f>G31/G$38</f>
+        <v>0.14605647517039919</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="15">
-        <v>0</v>
-      </c>
-      <c r="D32" s="16">
-        <f>C32/C$34</f>
-        <v>0</v>
-      </c>
-      <c r="E32" s="15">
-        <v>0</v>
-      </c>
-      <c r="F32" s="16">
-        <f>E32/E$34</f>
-        <v>0</v>
-      </c>
-      <c r="G32" s="15">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="11">
+        <v>0</v>
+      </c>
+      <c r="D32" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E32" s="11">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="F32" s="12">
+        <f>E32/E$38</f>
+        <v>3.231939163498098E-2</v>
+      </c>
+      <c r="G32" s="11">
+        <v>0</v>
+      </c>
+      <c r="H32" s="12">
+        <f>G32/G$38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="11">
+        <v>0</v>
+      </c>
+      <c r="D33" s="12">
+        <v>0</v>
+      </c>
+      <c r="E33" s="11">
+        <v>0</v>
+      </c>
+      <c r="F33" s="12">
+        <v>0</v>
+      </c>
+      <c r="G33" s="11">
+        <v>0</v>
+      </c>
+      <c r="H33" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="11">
+        <v>0</v>
+      </c>
+      <c r="D34" s="12">
+        <v>0</v>
+      </c>
+      <c r="E34" s="11">
+        <v>0</v>
+      </c>
+      <c r="F34" s="12">
+        <v>0</v>
+      </c>
+      <c r="G34" s="11">
+        <v>0</v>
+      </c>
+      <c r="H34" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H32" s="16">
-        <f>G32/G$34</f>
-        <v>6.6985645933014343E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="19"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="16"/>
-    </row>
-    <row r="34" spans="2:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="B34" s="8" t="s">
+      <c r="D35" s="12">
+        <f>C35/C$38</f>
+        <v>6.71785028790787E-2</v>
+      </c>
+      <c r="E35" s="11">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F35" s="12">
+        <f>E35/E$38</f>
+        <v>6.1787072243345995E-2</v>
+      </c>
+      <c r="G35" s="11">
+        <v>0</v>
+      </c>
+      <c r="H35" s="12">
+        <f>G35/G$38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="11">
+        <v>0.15</v>
+      </c>
+      <c r="D36" s="12">
+        <f>C36/C$38</f>
+        <v>0.14395393474088292</v>
+      </c>
+      <c r="E36" s="11">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="F36" s="12">
+        <f>E36/E$38</f>
+        <v>9.3155893536121651E-2</v>
+      </c>
+      <c r="G36" s="11">
+        <v>0</v>
+      </c>
+      <c r="H36" s="12">
+        <f>G36/G$38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C37" s="11"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="12"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="16"/>
+      <c r="B38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="17">
-        <f>SUM(C3:C32)</f>
-        <v>1.0409999999999999</v>
-      </c>
-      <c r="D34" s="18"/>
-      <c r="E34" s="17">
-        <f>SUM(E3:E32)</f>
-        <v>1.0510000000000002</v>
-      </c>
-      <c r="F34" s="18"/>
-      <c r="G34" s="17">
-        <f>SUM(G3:G32)</f>
-        <v>1.0450000000000004</v>
-      </c>
-      <c r="H34" s="18"/>
+      <c r="C38" s="14">
+        <f>SUM(C3:C36)</f>
+        <v>1.042</v>
+      </c>
+      <c r="D38" s="15"/>
+      <c r="E38" s="14">
+        <f>SUM(E3:E36)</f>
+        <v>1.0520000000000003</v>
+      </c>
+      <c r="F38" s="15"/>
+      <c r="G38" s="14">
+        <f>SUM(G3:G36)</f>
+        <v>1.0270000000000001</v>
+      </c>
+      <c r="H38" s="15"/>
+    </row>
+    <row r="39" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39"/>
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:H32" xr:uid="{AE4C1296-1CD9-4FE1-A63A-0A0295BE2554}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:H32">
-      <sortCondition ref="B2:B32"/>
+  <autoFilter ref="A2:H36" xr:uid="{AE4C1296-1CD9-4FE1-A63A-0A0295BE2554}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H36">
+      <sortCondition ref="A2:A36"/>
     </sortState>
   </autoFilter>
   <mergeCells count="3">
@@ -6178,13 +9315,8 @@
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="C3:H33">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E33">
-    <cfRule type="colorScale" priority="23">
+  <conditionalFormatting sqref="C3:C37">
+    <cfRule type="colorScale" priority="101">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6193,8 +9325,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F33">
-    <cfRule type="colorScale" priority="25">
+  <conditionalFormatting sqref="C3:H37">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D37">
+    <cfRule type="colorScale" priority="103">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6203,8 +9340,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G33">
-    <cfRule type="colorScale" priority="27">
+  <conditionalFormatting sqref="E3:E37">
+    <cfRule type="colorScale" priority="105">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6213,8 +9350,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H33">
-    <cfRule type="colorScale" priority="29">
+  <conditionalFormatting sqref="F3:F37">
+    <cfRule type="colorScale" priority="107">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6223,8 +9360,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C33">
-    <cfRule type="colorScale" priority="31">
+  <conditionalFormatting sqref="G3:G37">
+    <cfRule type="colorScale" priority="109">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6233,8 +9370,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D33">
-    <cfRule type="colorScale" priority="33">
+  <conditionalFormatting sqref="H3:H37">
+    <cfRule type="colorScale" priority="111">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>

--- a/data/_general_data/diets/all_feeds.xlsx
+++ b/data/_general_data/diets/all_feeds.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\treimer\Documents\R-temp-files\local_to_global_mariculture_modelling\data\_general_data\diets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B178966-180C-4097-8F1F-158F19EEEFC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A0E2CF-A22C-45AE-A7B5-DCE5286D5241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12096" yWindow="840" windowWidth="23628" windowHeight="15372" xr2:uid="{A3945701-1F25-4092-97C8-50D4B2B937C4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{A3945701-1F25-4092-97C8-50D4B2B937C4}"/>
   </bookViews>
   <sheets>
     <sheet name="all_feeds" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,9 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={0C425B69-1EAF-4622-ABE6-30EE0C7BDD5F}</author>
-    <author>tc={450A82A6-3C86-498F-ACC8-26ADEC349CDC}</author>
     <author>tc={12928BF0-7E54-41D7-B0E0-D79E21DEF76F}</author>
     <author>tc={90D7A96E-7038-4845-948B-9EA1E7EFF240}</author>
+    <author>tc={450A82A6-3C86-498F-ACC8-26ADEC349CDC}</author>
     <author>tc={295CEF34-0691-49CD-B4AA-404CFA1941B5}</author>
     <author>tc={6F58248A-EEB9-408F-A011-550C259F83D1}</author>
     <author>tc={66269F61-1EA7-4522-A6E8-C17271CC498A}</author>
@@ -57,15 +57,7 @@
     Original marine-dominant based on Ytrestøyl et al. (2015)</t>
       </text>
     </comment>
-    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{450A82A6-3C86-498F-ACC8-26ADEC349CDC}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Marine-dominant formulation from biomar. The three biomar formulations here are calculated to be energetically equivalent.</t>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="2" shapeId="0" xr:uid="{12928BF0-7E54-41D7-B0E0-D79E21DEF76F}">
+    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{12928BF0-7E54-41D7-B0E0-D79E21DEF76F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -73,12 +65,20 @@
     Original plant-dominant based on Aas et al. (2022)</t>
       </text>
     </comment>
-    <comment ref="E1" authorId="3" shapeId="0" xr:uid="{90D7A96E-7038-4845-948B-9EA1E7EFF240}">
+    <comment ref="D1" authorId="2" shapeId="0" xr:uid="{90D7A96E-7038-4845-948B-9EA1E7EFF240}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Basic novel, formulated by Tormey/Rich</t>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="3" shapeId="0" xr:uid="{450A82A6-3C86-498F-ACC8-26ADEC349CDC}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Marine-dominant formulation from biomar. The three biomar formulations here are calculated to be energetically equivalent.</t>
       </text>
     </comment>
     <comment ref="F1" authorId="4" shapeId="0" xr:uid="{295CEF34-0691-49CD-B4AA-404CFA1941B5}">
@@ -97,7 +97,7 @@
     From Tom Fox-Smith, representative of a higher animal ingredient inclusion</t>
       </text>
     </comment>
-    <comment ref="C8" authorId="6" shapeId="0" xr:uid="{66269F61-1EA7-4522-A6E8-C17271CC498A}">
+    <comment ref="E3" authorId="6" shapeId="0" xr:uid="{66269F61-1EA7-4522-A6E8-C17271CC498A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -105,7 +105,7 @@
     Tom’s formulation lumps fishmeal and krill altogether at 40%.</t>
       </text>
     </comment>
-    <comment ref="B15" authorId="7" shapeId="0" xr:uid="{202B778C-4D59-41E3-B4D4-415CB93CFCBA}">
+    <comment ref="B6" authorId="7" shapeId="0" xr:uid="{202B778C-4D59-41E3-B4D4-415CB93CFCBA}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -113,7 +113,7 @@
     From Ytrestøyl (2015) Figure 2, average of 25.2% of marine ingredients are from trimmings from years 2010-2013.</t>
       </text>
     </comment>
-    <comment ref="B16" authorId="8" shapeId="0" xr:uid="{A52D0341-65F2-4636-B34E-E5D8EBC0680B}">
+    <comment ref="B10" authorId="8" shapeId="0" xr:uid="{A52D0341-65F2-4636-B34E-E5D8EBC0680B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1137,14 +1137,14 @@
   <threadedComment ref="B1" dT="2025-11-26T23:30:50.14" personId="{CF1D84E9-9E0E-47B8-AF49-4AA23DD844A8}" id="{0C425B69-1EAF-4622-ABE6-30EE0C7BDD5F}">
     <text>Original marine-dominant based on Ytrestøyl et al. (2015)</text>
   </threadedComment>
-  <threadedComment ref="C1" dT="2025-11-26T23:53:21.15" personId="{CF1D84E9-9E0E-47B8-AF49-4AA23DD844A8}" id="{450A82A6-3C86-498F-ACC8-26ADEC349CDC}">
-    <text>Marine-dominant formulation from biomar. The three biomar formulations here are calculated to be energetically equivalent.</text>
-  </threadedComment>
-  <threadedComment ref="D1" dT="2025-11-26T23:42:51.14" personId="{CF1D84E9-9E0E-47B8-AF49-4AA23DD844A8}" id="{12928BF0-7E54-41D7-B0E0-D79E21DEF76F}">
+  <threadedComment ref="C1" dT="2025-11-26T23:42:51.14" personId="{CF1D84E9-9E0E-47B8-AF49-4AA23DD844A8}" id="{12928BF0-7E54-41D7-B0E0-D79E21DEF76F}">
     <text>Original plant-dominant based on Aas et al. (2022)</text>
   </threadedComment>
-  <threadedComment ref="E1" dT="2025-11-26T23:48:13.61" personId="{CF1D84E9-9E0E-47B8-AF49-4AA23DD844A8}" id="{90D7A96E-7038-4845-948B-9EA1E7EFF240}">
+  <threadedComment ref="D1" dT="2025-11-26T23:48:13.61" personId="{CF1D84E9-9E0E-47B8-AF49-4AA23DD844A8}" id="{90D7A96E-7038-4845-948B-9EA1E7EFF240}">
     <text>Basic novel, formulated by Tormey/Rich</text>
+  </threadedComment>
+  <threadedComment ref="E1" dT="2025-11-26T23:53:21.15" personId="{CF1D84E9-9E0E-47B8-AF49-4AA23DD844A8}" id="{450A82A6-3C86-498F-ACC8-26ADEC349CDC}">
+    <text>Marine-dominant formulation from biomar. The three biomar formulations here are calculated to be energetically equivalent.</text>
   </threadedComment>
   <threadedComment ref="F1" dT="2025-11-26T23:51:24.30" personId="{CF1D84E9-9E0E-47B8-AF49-4AA23DD844A8}" id="{295CEF34-0691-49CD-B4AA-404CFA1941B5}">
     <text>From Tom Fox-Smith, representative of a “novel ingredient” inclusive formulation</text>
@@ -1152,13 +1152,13 @@
   <threadedComment ref="G1" dT="2025-11-27T00:03:37.69" personId="{CF1D84E9-9E0E-47B8-AF49-4AA23DD844A8}" id="{6F58248A-EEB9-408F-A011-550C259F83D1}">
     <text>From Tom Fox-Smith, representative of a higher animal ingredient inclusion</text>
   </threadedComment>
-  <threadedComment ref="C8" dT="2025-11-26T23:56:58.41" personId="{CF1D84E9-9E0E-47B8-AF49-4AA23DD844A8}" id="{66269F61-1EA7-4522-A6E8-C17271CC498A}">
+  <threadedComment ref="E3" dT="2025-11-26T23:56:58.41" personId="{CF1D84E9-9E0E-47B8-AF49-4AA23DD844A8}" id="{66269F61-1EA7-4522-A6E8-C17271CC498A}">
     <text>Tom’s formulation lumps fishmeal and krill altogether at 40%.</text>
   </threadedComment>
-  <threadedComment ref="B15" dT="2025-11-26T23:39:37.94" personId="{CF1D84E9-9E0E-47B8-AF49-4AA23DD844A8}" id="{202B778C-4D59-41E3-B4D4-415CB93CFCBA}">
+  <threadedComment ref="B6" dT="2025-11-26T23:39:37.94" personId="{CF1D84E9-9E0E-47B8-AF49-4AA23DD844A8}" id="{202B778C-4D59-41E3-B4D4-415CB93CFCBA}">
     <text>From Ytrestøyl (2015) Figure 2, average of 25.2% of marine ingredients are from trimmings from years 2010-2013.</text>
   </threadedComment>
-  <threadedComment ref="B16" dT="2025-11-26T23:39:37.94" personId="{CF1D84E9-9E0E-47B8-AF49-4AA23DD844A8}" id="{A52D0341-65F2-4636-B34E-E5D8EBC0680B}">
+  <threadedComment ref="B10" dT="2025-11-26T23:39:37.94" personId="{CF1D84E9-9E0E-47B8-AF49-4AA23DD844A8}" id="{A52D0341-65F2-4636-B34E-E5D8EBC0680B}">
     <text>From Ytrestøyl (2015) Figure 2, average of 25.2% of marine ingredients are from trimmings from years 2010-2013.</text>
   </threadedComment>
 </ThreadedComments>
@@ -1170,16 +1170,16 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C4" sqref="C4"/>
+      <selection pane="topRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -1192,13 +1192,13 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
         <v>43</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>36</v>
       </c>
       <c r="F1" t="s">
         <v>44</v>
@@ -1215,14 +1215,14 @@
         <v>0.183</v>
       </c>
       <c r="C2" s="1">
-        <v>0.23649999999999999</v>
-      </c>
-      <c r="D2" s="1">
         <f>18%+0.4%</f>
         <v>0.184</v>
       </c>
+      <c r="D2" s="1">
+        <v>0.14605647517039919</v>
+      </c>
       <c r="E2" s="1">
-        <v>0.14605647517039919</v>
+        <v>0.23649999999999999</v>
       </c>
       <c r="F2" s="1">
         <v>0.24079999999999999</v>
@@ -1233,193 +1233,215 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="B3" s="1">
+        <f>19.5*(1-0.252)%</f>
+        <v>0.14585999999999999</v>
+      </c>
+      <c r="C3" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1">
+        <f>30*0.75%</f>
+        <v>0.22499999999999998</v>
+      </c>
       <c r="F3" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="G3" s="1"/>
+        <f>7.5%*0.75*0.75</f>
+        <v>4.2187499999999996E-2</v>
+      </c>
+      <c r="G3" s="1">
+        <f>7.5%*0.75*0.75</f>
+        <v>4.2187499999999996E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1">
-        <v>0.21299999999999999</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1">
-        <v>0.20899999999999999</v>
-      </c>
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D4" s="1"/>
       <c r="E4" s="1">
-        <v>0.14605647517039919</v>
+        <v>0.2087</v>
       </c>
       <c r="F4" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="G4" s="1"/>
+        <v>0.1077</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.1242</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="1">
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.2087</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
       <c r="D5" s="1">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="E5" s="1"/>
+        <v>1.9474196689386561E-2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.1</v>
+      </c>
       <c r="F5" s="1">
-        <v>0.1077</v>
+        <f>7.5%*0.25</f>
+        <v>1.8749999999999999E-2</v>
       </c>
       <c r="G5" s="1">
-        <v>0.1242</v>
+        <f>7.5%*0.25</f>
+        <v>1.8749999999999999E-2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="C6" s="1"/>
+        <f>19.5*0.252%</f>
+        <v>4.9140000000000003E-2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3.3000000000000002E-2</v>
+      </c>
       <c r="D6" s="1">
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="E6" s="1"/>
+        <v>4.8685491723466402E-2</v>
+      </c>
+      <c r="E6" s="1">
+        <f>30*0.25%</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
       <c r="F6" s="1">
-        <v>9.74E-2</v>
-      </c>
-      <c r="G6" s="1"/>
+        <f>7.5%*0.75*0.25</f>
+        <v>1.4062499999999999E-2</v>
+      </c>
+      <c r="G6" s="1">
+        <f>7.5%*0.75*0.25</f>
+        <v>1.4062499999999999E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="B7" s="1">
+        <f>11.2*(1-0.252)%</f>
+        <v>8.3775999999999989E-2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.9474196689386561E-2</v>
+      </c>
+      <c r="E7" s="1">
+        <f>7.69*0.75%</f>
+        <v>5.7675000000000004E-2</v>
+      </c>
       <c r="F7" s="1">
-        <v>4.7600000000000003E-2</v>
+        <f>4.54%*0.75</f>
+        <v>3.4050000000000004E-2</v>
       </c>
       <c r="G7" s="1">
-        <v>0.04</v>
+        <f>6.12%*0.75</f>
+        <v>4.5900000000000003E-2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <f>19.5*(1-0.252)%</f>
-        <v>0.14585999999999999</v>
-      </c>
-      <c r="C8" s="1">
-        <f>30*0.75%</f>
-        <v>0.22499999999999998</v>
-      </c>
-      <c r="D8" s="1">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1">
-        <f>7.5%*0.75*0.75</f>
-        <v>4.2187499999999996E-2</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1">
+        <v>3.78E-2</v>
+      </c>
+      <c r="F8" s="1"/>
       <c r="G8" s="1">
-        <f>7.5%*0.75*0.75</f>
-        <v>4.2187499999999996E-2</v>
+        <v>0.26840000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1">
-        <f>11.2*(1-0.252)%</f>
-        <v>8.3775999999999989E-2</v>
-      </c>
-      <c r="C9" s="1">
-        <f>7.69*0.75%</f>
-        <v>5.7675000000000004E-2</v>
-      </c>
-      <c r="D9" s="1">
-        <v>8.3000000000000004E-2</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
       <c r="E9" s="1">
-        <v>1.9474196689386561E-2</v>
-      </c>
-      <c r="F9" s="1">
-        <f>4.54%*0.75</f>
-        <v>3.4050000000000004E-2</v>
-      </c>
+        <v>2.6599999999999999E-2</v>
+      </c>
+      <c r="F9" s="1"/>
       <c r="G9" s="1">
-        <f>6.12%*0.75</f>
-        <v>4.5900000000000003E-2</v>
+        <v>1.7100000000000001E-2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1">
-        <v>3.1E-2</v>
+        <f>11.2*0.252%</f>
+        <v>2.8223999999999999E-2</v>
       </c>
       <c r="C10" s="1">
-        <v>1.0999999999999999E-2</v>
+        <v>0.02</v>
       </c>
       <c r="D10" s="1">
-        <v>4.1000000000000002E-2</v>
+        <v>4.8685491723466402E-2</v>
       </c>
       <c r="E10" s="1">
-        <v>4.5764362220058419E-2</v>
+        <f>7.69*0.25%</f>
+        <v>1.9225000000000003E-2</v>
       </c>
       <c r="F10" s="1">
-        <v>2.76E-2</v>
+        <f>4.54%*0.25</f>
+        <v>1.1350000000000001E-2</v>
       </c>
       <c r="G10" s="1">
-        <v>1.12E-2</v>
+        <f>6.12%*0.25</f>
+        <v>1.5300000000000001E-2</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B11" s="1">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C11" s="1"/>
+        <v>3.1E-2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
       <c r="D11" s="1">
-        <v>1.4E-2</v>
+        <v>4.5764362220058419E-2</v>
       </c>
       <c r="E11" s="1">
-        <v>4.8685491723466402E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="F11" s="1">
-        <v>2.69E-2</v>
-      </c>
-      <c r="G11" s="1"/>
+        <v>2.76E-2</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1.12E-2</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>42</v>
       </c>
       <c r="B12" s="1"/>
-      <c r="C12" s="1">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1">
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
       <c r="F12" s="1">
         <v>1.8800000000000001E-2</v>
       </c>
@@ -1429,185 +1451,162 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="1">
-        <v>0.1</v>
-      </c>
+      <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="1">
-        <v>1.9474196689386561E-2</v>
-      </c>
-      <c r="F13" s="1">
-        <f>7.5%*0.25</f>
-        <v>1.8749999999999999E-2</v>
-      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
       <c r="G13" s="1">
-        <f>7.5%*0.25</f>
-        <v>1.8749999999999999E-2</v>
+        <v>0.11849999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="1">
-        <v>1.6E-2</v>
-      </c>
-      <c r="G14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="1">
-        <f>19.5*0.252%</f>
-        <v>4.9140000000000003E-2</v>
-      </c>
-      <c r="C15" s="1">
-        <f>30*0.25%</f>
-        <v>7.4999999999999997E-2</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
       <c r="D15" s="1">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="E15" s="1">
-        <v>4.8685491723466402E-2</v>
-      </c>
-      <c r="F15" s="1">
-        <f>7.5%*0.75*0.25</f>
-        <v>1.4062499999999999E-2</v>
-      </c>
+        <v>9.7370983446932804E-2</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
       <c r="G15" s="1">
-        <f>7.5%*0.75*0.25</f>
-        <v>1.4062499999999999E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="1">
-        <f>11.2*0.252%</f>
-        <v>2.8223999999999999E-2</v>
-      </c>
-      <c r="C16" s="1">
-        <f>7.69*0.25%</f>
-        <v>1.9225000000000003E-2</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="E16" s="1">
-        <v>4.8685491723466402E-2</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
       <c r="F16" s="1">
-        <f>4.54%*0.25</f>
-        <v>1.1350000000000001E-2</v>
+        <v>4.7600000000000003E-2</v>
       </c>
       <c r="G16" s="1">
-        <f>6.12%*0.25</f>
-        <v>1.5300000000000001E-2</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="1">
-        <v>4.8685491723466402E-2</v>
-      </c>
+      <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1">
+        <v>1.83E-2</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="F18" s="1">
+        <v>0.15</v>
+      </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.20899999999999999</v>
+      </c>
       <c r="D19" s="1">
-        <v>1E-3</v>
+        <v>0.14605647517039919</v>
       </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="F19" s="1">
+        <v>0.15</v>
+      </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B20" s="1">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="E20" s="1">
-        <v>7.7896786757546244E-2</v>
-      </c>
-      <c r="F20" s="1"/>
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="C20" s="1">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1">
+        <v>9.74E-2</v>
+      </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B21" s="1">
-        <f>1.9%+0.3%</f>
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="C21" s="1"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1.4E-2</v>
+      </c>
       <c r="D21" s="1">
-        <v>3.5999999999999997E-2</v>
+        <v>4.8685491723466402E-2</v>
       </c>
       <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="F21" s="1">
+        <v>2.69E-2</v>
+      </c>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B22" s="1"/>
-      <c r="C22" s="1">
-        <v>2.6599999999999999E-2</v>
-      </c>
+      <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1">
-        <v>1.7100000000000001E-2</v>
-      </c>
+      <c r="F22" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1">
-        <v>4.2999999999999997E-2</v>
+        <v>4.8685491723466402E-2</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1615,51 +1614,56 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="1">
-        <v>1.83E-2</v>
-      </c>
+      <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="E25" s="1">
-        <v>2.9211295034079838E-2</v>
-      </c>
+      <c r="C25" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="B26" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C26" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D26" s="1">
+        <v>7.7896786757546244E-2</v>
+      </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="1">
-        <v>0.1</v>
-      </c>
+      <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="B27" s="1">
+        <f>1.9%+0.3%</f>
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="C27" s="1">
+        <v>3.5999999999999997E-2</v>
+      </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1667,61 +1671,57 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1">
-        <v>2.5000000000000001E-2</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1">
-        <v>3.78E-2</v>
-      </c>
-      <c r="D29" s="1"/>
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2.9211295034079838E-2</v>
+      </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="1">
-        <v>0.26840000000000003</v>
-      </c>
+      <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="1">
-        <v>0.11849999999999999</v>
-      </c>
+      <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
       <c r="D31" s="1"/>
-      <c r="E31" s="1">
-        <v>9.7370983446932804E-2</v>
-      </c>
+      <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="1">
-        <v>0.05</v>
-      </c>
+      <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
@@ -1739,13 +1739,13 @@
         <v>26</v>
       </c>
       <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
+      <c r="C33" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
       <c r="D33" s="1">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="E33" s="1">
         <v>6.815968841285297E-2</v>
       </c>
+      <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
@@ -1765,13 +1765,13 @@
         <v>17</v>
       </c>
       <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
+      <c r="C35" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
       <c r="D35" s="1">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="E35" s="1">
         <v>1.9474196689386561E-2</v>
       </c>
+      <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
@@ -1781,10 +1781,10 @@
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1">
+      <c r="D36" s="1">
         <v>6.815968841285297E-2</v>
       </c>
+      <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
@@ -1795,10 +1795,10 @@
       <c r="B37" s="1">
         <v>0.06</v>
       </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1">
+      <c r="C37" s="1">
         <v>3.4000000000000002E-2</v>
       </c>
+      <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -1833,19 +1833,15 @@
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1">
+      <c r="D40" s="1">
         <v>6.815968841285297E-2</v>
       </c>
+      <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G40" xr:uid="{76559CA1-42BE-4BD5-A831-409A491DC0E7}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G40">
-      <sortCondition descending="1" ref="F1:F40"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:G40" xr:uid="{76559CA1-42BE-4BD5-A831-409A491DC0E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>

--- a/data/_general_data/diets/all_feeds.xlsx
+++ b/data/_general_data/diets/all_feeds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\treimer\Documents\R-temp-files\local_to_global_mariculture_modelling\data\_general_data\diets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A0E2CF-A22C-45AE-A7B5-DCE5286D5241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E302938D-2E4C-4FFC-8D8C-47E97FCDA3B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{A3945701-1F25-4092-97C8-50D4B2B937C4}"/>
+    <workbookView xWindow="15252" yWindow="1500" windowWidth="22884" windowHeight="14232" xr2:uid="{A3945701-1F25-4092-97C8-50D4B2B937C4}"/>
   </bookViews>
   <sheets>
     <sheet name="all_feeds" sheetId="1" r:id="rId1"/>
@@ -44,9 +44,9 @@
     <author>tc={450A82A6-3C86-498F-ACC8-26ADEC349CDC}</author>
     <author>tc={295CEF34-0691-49CD-B4AA-404CFA1941B5}</author>
     <author>tc={6F58248A-EEB9-408F-A011-550C259F83D1}</author>
-    <author>tc={66269F61-1EA7-4522-A6E8-C17271CC498A}</author>
     <author>tc={202B778C-4D59-41E3-B4D4-415CB93CFCBA}</author>
     <author>tc={A52D0341-65F2-4636-B34E-E5D8EBC0680B}</author>
+    <author>tc={66269F61-1EA7-4522-A6E8-C17271CC498A}</author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0" shapeId="0" xr:uid="{0C425B69-1EAF-4622-ABE6-30EE0C7BDD5F}">
@@ -97,15 +97,7 @@
     From Tom Fox-Smith, representative of a higher animal ingredient inclusion</t>
       </text>
     </comment>
-    <comment ref="E3" authorId="6" shapeId="0" xr:uid="{66269F61-1EA7-4522-A6E8-C17271CC498A}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Tom’s formulation lumps fishmeal and krill altogether at 40%.</t>
-      </text>
-    </comment>
-    <comment ref="B6" authorId="7" shapeId="0" xr:uid="{202B778C-4D59-41E3-B4D4-415CB93CFCBA}">
+    <comment ref="B9" authorId="6" shapeId="0" xr:uid="{202B778C-4D59-41E3-B4D4-415CB93CFCBA}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -113,12 +105,20 @@
     From Ytrestøyl (2015) Figure 2, average of 25.2% of marine ingredients are from trimmings from years 2010-2013.</t>
       </text>
     </comment>
-    <comment ref="B10" authorId="8" shapeId="0" xr:uid="{A52D0341-65F2-4636-B34E-E5D8EBC0680B}">
+    <comment ref="B11" authorId="7" shapeId="0" xr:uid="{A52D0341-65F2-4636-B34E-E5D8EBC0680B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     From Ytrestøyl (2015) Figure 2, average of 25.2% of marine ingredients are from trimmings from years 2010-2013.</t>
+      </text>
+    </comment>
+    <comment ref="E21" authorId="8" shapeId="0" xr:uid="{66269F61-1EA7-4522-A6E8-C17271CC498A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Tom’s formulation lumps fishmeal and krill altogether at 40%.</t>
       </text>
     </comment>
   </commentList>
@@ -1152,14 +1152,14 @@
   <threadedComment ref="G1" dT="2025-11-27T00:03:37.69" personId="{CF1D84E9-9E0E-47B8-AF49-4AA23DD844A8}" id="{6F58248A-EEB9-408F-A011-550C259F83D1}">
     <text>From Tom Fox-Smith, representative of a higher animal ingredient inclusion</text>
   </threadedComment>
-  <threadedComment ref="E3" dT="2025-11-26T23:56:58.41" personId="{CF1D84E9-9E0E-47B8-AF49-4AA23DD844A8}" id="{66269F61-1EA7-4522-A6E8-C17271CC498A}">
-    <text>Tom’s formulation lumps fishmeal and krill altogether at 40%.</text>
-  </threadedComment>
-  <threadedComment ref="B6" dT="2025-11-26T23:39:37.94" personId="{CF1D84E9-9E0E-47B8-AF49-4AA23DD844A8}" id="{202B778C-4D59-41E3-B4D4-415CB93CFCBA}">
+  <threadedComment ref="B9" dT="2025-11-26T23:39:37.94" personId="{CF1D84E9-9E0E-47B8-AF49-4AA23DD844A8}" id="{202B778C-4D59-41E3-B4D4-415CB93CFCBA}">
     <text>From Ytrestøyl (2015) Figure 2, average of 25.2% of marine ingredients are from trimmings from years 2010-2013.</text>
   </threadedComment>
-  <threadedComment ref="B10" dT="2025-11-26T23:39:37.94" personId="{CF1D84E9-9E0E-47B8-AF49-4AA23DD844A8}" id="{A52D0341-65F2-4636-B34E-E5D8EBC0680B}">
+  <threadedComment ref="B11" dT="2025-11-26T23:39:37.94" personId="{CF1D84E9-9E0E-47B8-AF49-4AA23DD844A8}" id="{A52D0341-65F2-4636-B34E-E5D8EBC0680B}">
     <text>From Ytrestøyl (2015) Figure 2, average of 25.2% of marine ingredients are from trimmings from years 2010-2013.</text>
+  </threadedComment>
+  <threadedComment ref="E21" dT="2025-11-26T23:56:58.41" personId="{CF1D84E9-9E0E-47B8-AF49-4AA23DD844A8}" id="{66269F61-1EA7-4522-A6E8-C17271CC498A}">
+    <text>Tom’s formulation lumps fishmeal and krill altogether at 40%.</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -1170,7 +1170,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F9" sqref="F9"/>
+      <selection pane="topRight" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1209,515 +1209,518 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0.183</v>
-      </c>
-      <c r="C2" s="1">
-        <f>18%+0.4%</f>
-        <v>0.184</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
       <c r="D2" s="1">
-        <v>0.14605647517039919</v>
+        <v>0.02</v>
       </c>
       <c r="E2" s="1">
-        <v>0.23649999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="F2" s="1">
-        <v>0.24079999999999999</v>
+        <f>7.5%*0.25</f>
+        <v>1.8749999999999999E-2</v>
       </c>
       <c r="G2" s="1">
-        <v>0.1008</v>
+        <f>7.5%*0.25</f>
+        <v>1.8749999999999999E-2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1">
-        <f>19.5*(1-0.252)%</f>
-        <v>0.14585999999999999</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B3" s="1"/>
       <c r="C3" s="1">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1">
-        <f>30*0.75%</f>
-        <v>0.22499999999999998</v>
-      </c>
-      <c r="F3" s="1">
-        <f>7.5%*0.75*0.75</f>
-        <v>4.2187499999999996E-2</v>
-      </c>
-      <c r="G3" s="1">
-        <f>7.5%*0.75*0.75</f>
-        <v>4.2187499999999996E-2</v>
-      </c>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="1">
-        <v>9.9000000000000005E-2</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B4" s="1"/>
       <c r="C4" s="1">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1">
-        <v>0.2087</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.1077</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.1242</v>
-      </c>
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3.1E-2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
       <c r="D5" s="1">
-        <v>1.9474196689386561E-2</v>
+        <v>0.04</v>
       </c>
       <c r="E5" s="1">
-        <v>0.1</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="F5" s="1">
-        <f>7.5%*0.25</f>
-        <v>1.8749999999999999E-2</v>
+        <v>2.76E-2</v>
       </c>
       <c r="G5" s="1">
-        <f>7.5%*0.25</f>
-        <v>1.8749999999999999E-2</v>
+        <v>1.12E-2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1">
+        <v>2.69E-2</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B9" s="1">
         <f>19.5*0.252%</f>
         <v>4.9140000000000003E-2</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C9" s="1">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="D6" s="1">
-        <v>4.8685491723466402E-2</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="D9" s="1">
+        <v>5.5E-2</v>
+      </c>
+      <c r="E9" s="1">
         <f>30*0.25%</f>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F9" s="1">
         <f>7.5%*0.75*0.25</f>
         <v>1.4062499999999999E-2</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G9" s="1">
         <f>7.5%*0.75*0.25</f>
         <v>1.4062499999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1">
-        <f>11.2*(1-0.252)%</f>
-        <v>8.3775999999999989E-2</v>
-      </c>
-      <c r="C7" s="1">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1.9474196689386561E-2</v>
-      </c>
-      <c r="E7" s="1">
-        <f>7.69*0.75%</f>
-        <v>5.7675000000000004E-2</v>
-      </c>
-      <c r="F7" s="1">
-        <f>4.54%*0.75</f>
-        <v>3.4050000000000004E-2</v>
-      </c>
-      <c r="G7" s="1">
-        <f>6.12%*0.75</f>
-        <v>4.5900000000000003E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1">
-        <v>3.78E-2</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1">
-        <v>0.26840000000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1">
-        <v>2.6599999999999999E-2</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1">
-        <v>1.7100000000000001E-2</v>
-      </c>
-    </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1">
+        <v>5.5E-2</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B11" s="1">
         <f>11.2*0.252%</f>
         <v>2.8223999999999999E-2</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C11" s="1">
         <v>0.02</v>
       </c>
-      <c r="D10" s="1">
-        <v>4.8685491723466402E-2</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="D11" s="1">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="E11" s="1">
         <f>7.69*0.25%</f>
         <v>1.9225000000000003E-2</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F11" s="1">
         <f>4.54%*0.25</f>
         <v>1.1350000000000001E-2</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G11" s="1">
         <f>6.12%*0.25</f>
         <v>1.5300000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="1">
-        <v>3.1E-2</v>
-      </c>
-      <c r="C11" s="1">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="D11" s="1">
-        <v>4.5764362220058419E-2</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="F11" s="1">
-        <v>2.76E-2</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1.12E-2</v>
-      </c>
-    </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1">
-        <v>2.5999999999999999E-3</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1.8800000000000001E-2</v>
-      </c>
-      <c r="G12" s="1">
-        <v>2.7000000000000001E-3</v>
-      </c>
+      <c r="C12" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D12" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="D13" s="1">
+        <v>0.08</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="1">
-        <v>0.11849999999999999</v>
-      </c>
+      <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="D14" s="1">
+        <v>9.5000000000000001E-2</v>
+      </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="B15" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C15" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
       <c r="D15" s="1">
-        <v>9.7370983446932804E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="1">
-        <v>0.05</v>
-      </c>
+      <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.125</v>
+      </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1">
-        <v>4.7600000000000003E-2</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0.04</v>
-      </c>
+        <v>0.15</v>
+      </c>
+      <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.183</v>
+      </c>
+      <c r="C17" s="1">
+        <f>18%+0.4%</f>
+        <v>0.184</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.185</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.23649999999999999</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.24079999999999999</v>
+      </c>
       <c r="G17" s="1">
-        <v>1.83E-2</v>
+        <v>0.1008</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1">
-        <v>0.15</v>
+        <v>1.6E-2</v>
       </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1">
-        <v>0.21299999999999999</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0.14605647517039919</v>
-      </c>
-      <c r="E19" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1">
+        <v>2.5999999999999999E-3</v>
+      </c>
       <c r="F19" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="G19" s="1"/>
+        <v>1.8800000000000001E-2</v>
+      </c>
+      <c r="G19" s="1">
+        <v>2.7000000000000001E-3</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B20" s="1">
-        <v>5.8000000000000003E-2</v>
+        <f>11.2*(1-0.252)%</f>
+        <v>8.3775999999999989E-2</v>
       </c>
       <c r="C20" s="1">
-        <v>9.8000000000000004E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="E20" s="1">
+        <f>7.69*0.75%</f>
+        <v>5.7675000000000004E-2</v>
+      </c>
       <c r="F20" s="1">
-        <v>9.74E-2</v>
-      </c>
-      <c r="G20" s="1"/>
+        <f>4.54%*0.75</f>
+        <v>3.4050000000000004E-2</v>
+      </c>
+      <c r="G20" s="1">
+        <f>6.12%*0.75</f>
+        <v>4.5900000000000003E-2</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B21" s="1">
-        <v>8.0000000000000002E-3</v>
+        <f>19.5*(1-0.252)%</f>
+        <v>0.14585999999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>1.4E-2</v>
-      </c>
-      <c r="D21" s="1">
-        <v>4.8685491723466402E-2</v>
-      </c>
-      <c r="E21" s="1"/>
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1">
+        <f>30*0.75%</f>
+        <v>0.22499999999999998</v>
+      </c>
       <c r="F21" s="1">
-        <v>2.69E-2</v>
-      </c>
-      <c r="G21" s="1"/>
+        <f>7.5%*0.75*0.75</f>
+        <v>4.2187499999999996E-2</v>
+      </c>
+      <c r="G21" s="1">
+        <f>7.5%*0.75*0.75</f>
+        <v>4.2187499999999996E-2</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+      <c r="D22" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1">
-        <v>1.6E-2</v>
-      </c>
-      <c r="G22" s="1"/>
+        <v>4.7600000000000003E-2</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1">
-        <v>4.8685491723466402E-2</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="C23" s="1">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+      <c r="F23" s="1">
+        <v>9.74E-2</v>
+      </c>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="B24" s="1">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="C24" s="1">
+        <v>6.5000000000000002E-2</v>
+      </c>
       <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="E24" s="1">
+        <v>0.2087</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.1077</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.1242</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B25" s="1"/>
-      <c r="C25" s="1">
-        <v>1E-3</v>
-      </c>
+      <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="F25" s="1">
+        <v>0.15</v>
+      </c>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="1">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C26" s="1">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="D26" s="1">
-        <v>7.7896786757546244E-2</v>
-      </c>
-      <c r="E26" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1">
+        <v>3.78E-2</v>
+      </c>
       <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="G26" s="1">
+        <v>0.26840000000000003</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="1">
-        <f>1.9%+0.3%</f>
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="C27" s="1">
-        <v>3.5999999999999997E-2</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="E27" s="1">
+        <v>2.6599999999999999E-2</v>
+      </c>
       <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="G27" s="1">
+        <v>1.7100000000000001E-2</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B28" s="1"/>
-      <c r="C28" s="1">
-        <v>4.2999999999999997E-2</v>
-      </c>
+      <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+      <c r="G28" s="1">
+        <v>0.11849999999999999</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B29" s="1"/>
-      <c r="C29" s="1">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="D29" s="1">
-        <v>2.9211295034079838E-2</v>
-      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
+      <c r="G29" s="1">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="G30" s="1">
+        <v>1.83E-2</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>14</v>
-      </c>
-      <c r="B31" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="C31" s="1">
-        <v>2.5000000000000001E-2</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -1725,10 +1728,12 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
+      <c r="C32" s="1">
+        <v>1E-3</v>
+      </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1736,25 +1741,28 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="B33" s="1">
+        <f>1.9%+0.3%</f>
+        <v>2.1999999999999999E-2</v>
+      </c>
       <c r="C33" s="1">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="D33" s="1">
-        <v>6.815968841285297E-2</v>
-      </c>
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
+      <c r="C34" s="1">
+        <v>4.2999999999999997E-2</v>
+      </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -1762,42 +1770,36 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B35" s="1"/>
-      <c r="C35" s="1">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="D35" s="1">
-        <v>1.9474196689386561E-2</v>
-      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>19</v>
-      </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1">
-        <v>6.815968841285297E-2</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="C36" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>20</v>
-      </c>
-      <c r="B37" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="C37" s="1">
-        <v>3.4000000000000002E-2</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -1805,7 +1807,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1816,12 +1818,14 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B39" s="1">
-        <v>2E-3</v>
-      </c>
-      <c r="C39" s="1"/>
+        <v>0.06</v>
+      </c>
+      <c r="C39" s="1">
+        <v>3.4000000000000002E-2</v>
+      </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -1829,19 +1833,21 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="1">
-        <v>6.815968841285297E-2</v>
-      </c>
+      <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G40" xr:uid="{76559CA1-42BE-4BD5-A831-409A491DC0E7}"/>
+  <autoFilter ref="A1:G40" xr:uid="{76559CA1-42BE-4BD5-A831-409A491DC0E7}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G40">
+      <sortCondition ref="D1:D40"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
